--- a/data/trans_orig/P2A_enfcro_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P2A_enfcro_R-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{93C4AFE6-19A2-4A27-8006-B77EC33A2ACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B10CB9BF-7D82-4146-88BF-97250A064959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AE2DDB1A-3A76-48AF-957E-C63763CF821F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{850193D9-DFED-4B7E-99B5-FF51E27F4E94}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="631">
   <si>
-    <t>Hogares con personas con enfermedades crónicas en 2007 (Tasa respuesta: 100,0%)</t>
+    <t>Hogares según si tienen personas con enfermedades crónicas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -77,28 +77,28 @@
     <t>42,42%</t>
   </si>
   <si>
-    <t>36,73%</t>
-  </si>
-  <si>
-    <t>48,16%</t>
+    <t>36,91%</t>
+  </si>
+  <si>
+    <t>48,81%</t>
   </si>
   <si>
     <t>50,67%</t>
   </si>
   <si>
-    <t>44,52%</t>
-  </si>
-  <si>
-    <t>57,47%</t>
+    <t>44,35%</t>
+  </si>
+  <si>
+    <t>56,86%</t>
   </si>
   <si>
     <t>46,45%</t>
   </si>
   <si>
-    <t>41,81%</t>
-  </si>
-  <si>
-    <t>50,42%</t>
+    <t>41,95%</t>
+  </si>
+  <si>
+    <t>50,55%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>57,58%</t>
   </si>
   <si>
-    <t>51,84%</t>
-  </si>
-  <si>
-    <t>63,27%</t>
+    <t>51,19%</t>
+  </si>
+  <si>
+    <t>63,09%</t>
   </si>
   <si>
     <t>49,33%</t>
   </si>
   <si>
-    <t>42,53%</t>
-  </si>
-  <si>
-    <t>55,48%</t>
+    <t>43,14%</t>
+  </si>
+  <si>
+    <t>55,65%</t>
   </si>
   <si>
     <t>53,55%</t>
   </si>
   <si>
-    <t>49,58%</t>
-  </si>
-  <si>
-    <t>58,19%</t>
+    <t>49,45%</t>
+  </si>
+  <si>
+    <t>58,05%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,49 @@
     <t>44,87%</t>
   </si>
   <si>
-    <t>40,57%</t>
-  </si>
-  <si>
-    <t>49,83%</t>
+    <t>40,56%</t>
+  </si>
+  <si>
+    <t>49,57%</t>
   </si>
   <si>
     <t>61,9%</t>
   </si>
   <si>
-    <t>57,61%</t>
-  </si>
-  <si>
-    <t>66,13%</t>
+    <t>57,18%</t>
+  </si>
+  <si>
+    <t>66,12%</t>
   </si>
   <si>
     <t>53,48%</t>
   </si>
   <si>
-    <t>50,41%</t>
-  </si>
-  <si>
-    <t>56,71%</t>
+    <t>56,85%</t>
   </si>
   <si>
     <t>55,13%</t>
   </si>
   <si>
-    <t>50,17%</t>
-  </si>
-  <si>
-    <t>59,43%</t>
+    <t>50,43%</t>
+  </si>
+  <si>
+    <t>59,44%</t>
   </si>
   <si>
     <t>38,1%</t>
   </si>
   <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>42,39%</t>
+    <t>33,88%</t>
+  </si>
+  <si>
+    <t>42,82%</t>
   </si>
   <si>
     <t>46,52%</t>
   </si>
   <si>
-    <t>43,29%</t>
-  </si>
-  <si>
-    <t>49,59%</t>
+    <t>43,15%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -197,55 +191,55 @@
     <t>44,67%</t>
   </si>
   <si>
-    <t>39,76%</t>
-  </si>
-  <si>
-    <t>50,74%</t>
+    <t>38,51%</t>
+  </si>
+  <si>
+    <t>50,36%</t>
   </si>
   <si>
     <t>67,79%</t>
   </si>
   <si>
-    <t>62,6%</t>
-  </si>
-  <si>
-    <t>72,82%</t>
+    <t>62,53%</t>
+  </si>
+  <si>
+    <t>72,8%</t>
   </si>
   <si>
     <t>56,53%</t>
   </si>
   <si>
-    <t>52,76%</t>
-  </si>
-  <si>
-    <t>60,54%</t>
+    <t>52,47%</t>
+  </si>
+  <si>
+    <t>60,29%</t>
   </si>
   <si>
     <t>55,33%</t>
   </si>
   <si>
-    <t>49,26%</t>
-  </si>
-  <si>
-    <t>60,24%</t>
+    <t>49,64%</t>
+  </si>
+  <si>
+    <t>61,49%</t>
   </si>
   <si>
     <t>32,21%</t>
   </si>
   <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>37,4%</t>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>37,47%</t>
   </si>
   <si>
     <t>43,47%</t>
   </si>
   <si>
-    <t>39,46%</t>
-  </si>
-  <si>
-    <t>47,24%</t>
+    <t>39,71%</t>
+  </si>
+  <si>
+    <t>47,53%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -254,55 +248,55 @@
     <t>50,87%</t>
   </si>
   <si>
-    <t>45,32%</t>
-  </si>
-  <si>
-    <t>56,14%</t>
+    <t>45,96%</t>
+  </si>
+  <si>
+    <t>55,92%</t>
   </si>
   <si>
     <t>68,45%</t>
   </si>
   <si>
-    <t>63,57%</t>
-  </si>
-  <si>
-    <t>73,09%</t>
+    <t>63,68%</t>
+  </si>
+  <si>
+    <t>72,66%</t>
   </si>
   <si>
     <t>59,81%</t>
   </si>
   <si>
-    <t>56,35%</t>
-  </si>
-  <si>
-    <t>63,49%</t>
+    <t>56,19%</t>
+  </si>
+  <si>
+    <t>63,45%</t>
   </si>
   <si>
     <t>49,13%</t>
   </si>
   <si>
-    <t>43,86%</t>
-  </si>
-  <si>
-    <t>54,68%</t>
+    <t>44,08%</t>
+  </si>
+  <si>
+    <t>54,04%</t>
   </si>
   <si>
     <t>31,55%</t>
   </si>
   <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>36,43%</t>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>36,32%</t>
   </si>
   <si>
     <t>40,19%</t>
   </si>
   <si>
-    <t>36,51%</t>
-  </si>
-  <si>
-    <t>43,65%</t>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>43,81%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -311,49 +305,55 @@
     <t>48,03%</t>
   </si>
   <si>
-    <t>40,53%</t>
-  </si>
-  <si>
-    <t>54,71%</t>
+    <t>41,63%</t>
+  </si>
+  <si>
+    <t>55,45%</t>
   </si>
   <si>
     <t>62,17%</t>
   </si>
   <si>
-    <t>54,94%</t>
-  </si>
-  <si>
-    <t>68,4%</t>
+    <t>55,57%</t>
+  </si>
+  <si>
+    <t>68,74%</t>
   </si>
   <si>
     <t>55,17%</t>
   </si>
   <si>
-    <t>59,99%</t>
+    <t>49,96%</t>
+  </si>
+  <si>
+    <t>59,88%</t>
   </si>
   <si>
     <t>51,97%</t>
   </si>
   <si>
-    <t>45,29%</t>
-  </si>
-  <si>
-    <t>59,47%</t>
+    <t>44,55%</t>
+  </si>
+  <si>
+    <t>58,37%</t>
   </si>
   <si>
     <t>37,83%</t>
   </si>
   <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>45,06%</t>
+    <t>31,26%</t>
+  </si>
+  <si>
+    <t>44,43%</t>
   </si>
   <si>
     <t>44,83%</t>
   </si>
   <si>
-    <t>40,01%</t>
+    <t>40,12%</t>
+  </si>
+  <si>
+    <t>50,04%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -362,1063 +362,1069 @@
     <t>50,14%</t>
   </si>
   <si>
-    <t>44,06%</t>
+    <t>44,12%</t>
+  </si>
+  <si>
+    <t>55,86%</t>
+  </si>
+  <si>
+    <t>64,17%</t>
+  </si>
+  <si>
+    <t>58,03%</t>
+  </si>
+  <si>
+    <t>69,47%</t>
+  </si>
+  <si>
+    <t>57,25%</t>
+  </si>
+  <si>
+    <t>52,75%</t>
+  </si>
+  <si>
+    <t>61,35%</t>
+  </si>
+  <si>
+    <t>49,86%</t>
+  </si>
+  <si>
+    <t>44,14%</t>
+  </si>
+  <si>
+    <t>55,88%</t>
+  </si>
+  <si>
+    <t>35,83%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>41,97%</t>
+  </si>
+  <si>
+    <t>42,75%</t>
+  </si>
+  <si>
+    <t>38,65%</t>
+  </si>
+  <si>
+    <t>47,25%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>44,77%</t>
+  </si>
+  <si>
+    <t>40,23%</t>
+  </si>
+  <si>
+    <t>48,49%</t>
+  </si>
+  <si>
+    <t>60,04%</t>
   </si>
   <si>
     <t>56,03%</t>
   </si>
   <si>
-    <t>64,17%</t>
-  </si>
-  <si>
-    <t>58,36%</t>
-  </si>
-  <si>
-    <t>69,62%</t>
-  </si>
-  <si>
-    <t>57,25%</t>
-  </si>
-  <si>
-    <t>53,19%</t>
-  </si>
-  <si>
-    <t>61,47%</t>
-  </si>
-  <si>
-    <t>49,86%</t>
+    <t>63,88%</t>
+  </si>
+  <si>
+    <t>52,54%</t>
+  </si>
+  <si>
+    <t>55,43%</t>
+  </si>
+  <si>
+    <t>55,23%</t>
+  </si>
+  <si>
+    <t>51,51%</t>
+  </si>
+  <si>
+    <t>59,77%</t>
+  </si>
+  <si>
+    <t>39,96%</t>
+  </si>
+  <si>
+    <t>36,12%</t>
   </si>
   <si>
     <t>43,97%</t>
   </si>
   <si>
-    <t>55,94%</t>
-  </si>
-  <si>
-    <t>35,83%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>41,64%</t>
-  </si>
-  <si>
-    <t>42,75%</t>
-  </si>
-  <si>
-    <t>38,53%</t>
-  </si>
-  <si>
-    <t>46,81%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>44,77%</t>
-  </si>
-  <si>
-    <t>40,54%</t>
-  </si>
-  <si>
-    <t>48,87%</t>
-  </si>
-  <si>
-    <t>60,04%</t>
-  </si>
-  <si>
-    <t>56,11%</t>
+    <t>47,46%</t>
+  </si>
+  <si>
+    <t>44,57%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>49,75%</t>
+  </si>
+  <si>
+    <t>46,03%</t>
+  </si>
+  <si>
+    <t>53,94%</t>
+  </si>
+  <si>
+    <t>61,15%</t>
+  </si>
+  <si>
+    <t>57,21%</t>
+  </si>
+  <si>
+    <t>64,46%</t>
+  </si>
+  <si>
+    <t>55,6%</t>
+  </si>
+  <si>
+    <t>52,81%</t>
+  </si>
+  <si>
+    <t>57,95%</t>
+  </si>
+  <si>
+    <t>50,25%</t>
+  </si>
+  <si>
+    <t>46,06%</t>
+  </si>
+  <si>
+    <t>53,97%</t>
+  </si>
+  <si>
+    <t>38,85%</t>
+  </si>
+  <si>
+    <t>35,54%</t>
+  </si>
+  <si>
+    <t>42,79%</t>
+  </si>
+  <si>
+    <t>44,4%</t>
+  </si>
+  <si>
+    <t>42,05%</t>
+  </si>
+  <si>
+    <t>47,19%</t>
+  </si>
+  <si>
+    <t>47,02%</t>
+  </si>
+  <si>
+    <t>45,35%</t>
+  </si>
+  <si>
+    <t>48,82%</t>
+  </si>
+  <si>
+    <t>62,01%</t>
+  </si>
+  <si>
+    <t>60,37%</t>
+  </si>
+  <si>
+    <t>63,58%</t>
+  </si>
+  <si>
+    <t>54,63%</t>
+  </si>
+  <si>
+    <t>53,39%</t>
+  </si>
+  <si>
+    <t>55,93%</t>
+  </si>
+  <si>
+    <t>52,98%</t>
+  </si>
+  <si>
+    <t>51,18%</t>
+  </si>
+  <si>
+    <t>54,65%</t>
+  </si>
+  <si>
+    <t>37,99%</t>
+  </si>
+  <si>
+    <t>36,42%</t>
+  </si>
+  <si>
+    <t>39,63%</t>
+  </si>
+  <si>
+    <t>45,37%</t>
+  </si>
+  <si>
+    <t>44,07%</t>
+  </si>
+  <si>
+    <t>46,61%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen personas con enfermedades crónicas en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>52,44%</t>
+  </si>
+  <si>
+    <t>47,75%</t>
+  </si>
+  <si>
+    <t>56,88%</t>
+  </si>
+  <si>
+    <t>69,87%</t>
+  </si>
+  <si>
+    <t>65,72%</t>
+  </si>
+  <si>
+    <t>73,92%</t>
+  </si>
+  <si>
+    <t>61,31%</t>
+  </si>
+  <si>
+    <t>58,08%</t>
+  </si>
+  <si>
+    <t>64,47%</t>
+  </si>
+  <si>
+    <t>47,56%</t>
+  </si>
+  <si>
+    <t>43,12%</t>
+  </si>
+  <si>
+    <t>52,25%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>34,28%</t>
+  </si>
+  <si>
+    <t>38,69%</t>
+  </si>
+  <si>
+    <t>35,53%</t>
+  </si>
+  <si>
+    <t>41,92%</t>
+  </si>
+  <si>
+    <t>59,14%</t>
+  </si>
+  <si>
+    <t>54,16%</t>
+  </si>
+  <si>
+    <t>64,92%</t>
+  </si>
+  <si>
+    <t>68,61%</t>
+  </si>
+  <si>
+    <t>62,71%</t>
+  </si>
+  <si>
+    <t>73,49%</t>
+  </si>
+  <si>
+    <t>64,0%</t>
+  </si>
+  <si>
+    <t>60,27%</t>
+  </si>
+  <si>
+    <t>67,77%</t>
+  </si>
+  <si>
+    <t>40,86%</t>
+  </si>
+  <si>
+    <t>35,08%</t>
+  </si>
+  <si>
+    <t>45,84%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>37,29%</t>
+  </si>
+  <si>
+    <t>36,0%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
+  </si>
+  <si>
+    <t>39,73%</t>
+  </si>
+  <si>
+    <t>59,58%</t>
+  </si>
+  <si>
+    <t>55,39%</t>
+  </si>
+  <si>
+    <t>63,38%</t>
+  </si>
+  <si>
+    <t>73,55%</t>
+  </si>
+  <si>
+    <t>69,97%</t>
+  </si>
+  <si>
+    <t>76,78%</t>
+  </si>
+  <si>
+    <t>66,6%</t>
+  </si>
+  <si>
+    <t>63,9%</t>
+  </si>
+  <si>
+    <t>69,13%</t>
+  </si>
+  <si>
+    <t>40,42%</t>
+  </si>
+  <si>
+    <t>36,62%</t>
+  </si>
+  <si>
+    <t>44,61%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>33,4%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>36,1%</t>
+  </si>
+  <si>
+    <t>55,38%</t>
+  </si>
+  <si>
+    <t>48,74%</t>
+  </si>
+  <si>
+    <t>62,3%</t>
+  </si>
+  <si>
+    <t>82,32%</t>
+  </si>
+  <si>
+    <t>76,67%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>69,06%</t>
+  </si>
+  <si>
+    <t>64,15%</t>
+  </si>
+  <si>
+    <t>73,38%</t>
+  </si>
+  <si>
+    <t>44,62%</t>
+  </si>
+  <si>
+    <t>37,7%</t>
+  </si>
+  <si>
+    <t>51,26%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>35,85%</t>
+  </si>
+  <si>
+    <t>62,61%</t>
+  </si>
+  <si>
+    <t>57,07%</t>
+  </si>
+  <si>
+    <t>69,36%</t>
+  </si>
+  <si>
+    <t>77,55%</t>
+  </si>
+  <si>
+    <t>71,99%</t>
+  </si>
+  <si>
+    <t>82,21%</t>
+  </si>
+  <si>
+    <t>70,16%</t>
+  </si>
+  <si>
+    <t>65,55%</t>
+  </si>
+  <si>
+    <t>73,83%</t>
+  </si>
+  <si>
+    <t>37,39%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>42,93%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>34,45%</t>
+  </si>
+  <si>
+    <t>57,92%</t>
+  </si>
+  <si>
+    <t>53,68%</t>
+  </si>
+  <si>
+    <t>61,86%</t>
+  </si>
+  <si>
+    <t>68,27%</t>
+  </si>
+  <si>
+    <t>64,9%</t>
+  </si>
+  <si>
+    <t>72,23%</t>
+  </si>
+  <si>
+    <t>63,22%</t>
+  </si>
+  <si>
+    <t>65,56%</t>
+  </si>
+  <si>
+    <t>42,08%</t>
+  </si>
+  <si>
+    <t>38,14%</t>
+  </si>
+  <si>
+    <t>46,32%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>35,1%</t>
+  </si>
+  <si>
+    <t>36,78%</t>
+  </si>
+  <si>
+    <t>34,44%</t>
+  </si>
+  <si>
+    <t>46,95%</t>
+  </si>
+  <si>
+    <t>43,21%</t>
+  </si>
+  <si>
+    <t>50,61%</t>
+  </si>
+  <si>
+    <t>58,16%</t>
+  </si>
+  <si>
+    <t>54,91%</t>
+  </si>
+  <si>
+    <t>61,87%</t>
+  </si>
+  <si>
+    <t>52,71%</t>
+  </si>
+  <si>
+    <t>50,06%</t>
+  </si>
+  <si>
+    <t>54,93%</t>
+  </si>
+  <si>
+    <t>53,05%</t>
+  </si>
+  <si>
+    <t>49,39%</t>
+  </si>
+  <si>
+    <t>56,79%</t>
+  </si>
+  <si>
+    <t>41,84%</t>
+  </si>
+  <si>
+    <t>38,13%</t>
+  </si>
+  <si>
+    <t>45,09%</t>
+  </si>
+  <si>
+    <t>47,29%</t>
+  </si>
+  <si>
+    <t>45,07%</t>
+  </si>
+  <si>
+    <t>49,94%</t>
+  </si>
+  <si>
+    <t>55,27%</t>
+  </si>
+  <si>
+    <t>53,46%</t>
+  </si>
+  <si>
+    <t>57,11%</t>
+  </si>
+  <si>
+    <t>68,8%</t>
+  </si>
+  <si>
+    <t>67,09%</t>
+  </si>
+  <si>
+    <t>70,32%</t>
+  </si>
+  <si>
+    <t>62,16%</t>
+  </si>
+  <si>
+    <t>60,89%</t>
+  </si>
+  <si>
+    <t>63,36%</t>
+  </si>
+  <si>
+    <t>44,73%</t>
+  </si>
+  <si>
+    <t>42,89%</t>
+  </si>
+  <si>
+    <t>46,54%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>32,91%</t>
+  </si>
+  <si>
+    <t>37,84%</t>
+  </si>
+  <si>
+    <t>36,64%</t>
+  </si>
+  <si>
+    <t>39,11%</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen personas con enfermedades crónicas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>55,37%</t>
+  </si>
+  <si>
+    <t>48,43%</t>
+  </si>
+  <si>
+    <t>60,95%</t>
+  </si>
+  <si>
+    <t>66,99%</t>
+  </si>
+  <si>
+    <t>61,69%</t>
+  </si>
+  <si>
+    <t>72,72%</t>
+  </si>
+  <si>
+    <t>61,13%</t>
+  </si>
+  <si>
+    <t>56,75%</t>
+  </si>
+  <si>
+    <t>65,05%</t>
+  </si>
+  <si>
+    <t>44,63%</t>
+  </si>
+  <si>
+    <t>39,05%</t>
+  </si>
+  <si>
+    <t>51,57%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>38,31%</t>
+  </si>
+  <si>
+    <t>38,87%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>43,25%</t>
+  </si>
+  <si>
+    <t>56,92%</t>
+  </si>
+  <si>
+    <t>52,64%</t>
+  </si>
+  <si>
+    <t>61,27%</t>
+  </si>
+  <si>
+    <t>70,91%</t>
+  </si>
+  <si>
+    <t>66,67%</t>
+  </si>
+  <si>
+    <t>74,54%</t>
+  </si>
+  <si>
+    <t>64,06%</t>
+  </si>
+  <si>
+    <t>60,91%</t>
+  </si>
+  <si>
+    <t>67,28%</t>
+  </si>
+  <si>
+    <t>43,08%</t>
+  </si>
+  <si>
+    <t>38,73%</t>
+  </si>
+  <si>
+    <t>47,36%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>33,33%</t>
+  </si>
+  <si>
+    <t>35,94%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>39,09%</t>
+  </si>
+  <si>
+    <t>52,07%</t>
+  </si>
+  <si>
+    <t>46,98%</t>
+  </si>
+  <si>
+    <t>57,56%</t>
+  </si>
+  <si>
+    <t>61,38%</t>
+  </si>
+  <si>
+    <t>56,5%</t>
+  </si>
+  <si>
+    <t>67,15%</t>
+  </si>
+  <si>
+    <t>52,96%</t>
+  </si>
+  <si>
+    <t>60,65%</t>
+  </si>
+  <si>
+    <t>47,93%</t>
+  </si>
+  <si>
+    <t>42,44%</t>
+  </si>
+  <si>
+    <t>53,02%</t>
+  </si>
+  <si>
+    <t>38,62%</t>
+  </si>
+  <si>
+    <t>32,85%</t>
+  </si>
+  <si>
+    <t>43,5%</t>
+  </si>
+  <si>
+    <t>39,35%</t>
+  </si>
+  <si>
+    <t>47,04%</t>
+  </si>
+  <si>
+    <t>57,27%</t>
+  </si>
+  <si>
+    <t>52,3%</t>
+  </si>
+  <si>
+    <t>62,84%</t>
+  </si>
+  <si>
+    <t>70,36%</t>
+  </si>
+  <si>
+    <t>65,53%</t>
+  </si>
+  <si>
+    <t>74,82%</t>
   </si>
   <si>
     <t>63,96%</t>
   </si>
   <si>
-    <t>52,54%</t>
-  </si>
-  <si>
-    <t>49,73%</t>
-  </si>
-  <si>
-    <t>55,39%</t>
-  </si>
-  <si>
-    <t>55,23%</t>
-  </si>
-  <si>
-    <t>51,13%</t>
-  </si>
-  <si>
-    <t>59,46%</t>
-  </si>
-  <si>
-    <t>39,96%</t>
+    <t>60,38%</t>
+  </si>
+  <si>
+    <t>67,39%</t>
+  </si>
+  <si>
+    <t>42,73%</t>
+  </si>
+  <si>
+    <t>37,16%</t>
+  </si>
+  <si>
+    <t>47,7%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
   </si>
   <si>
     <t>36,04%</t>
   </si>
   <si>
-    <t>43,89%</t>
-  </si>
-  <si>
-    <t>47,46%</t>
-  </si>
-  <si>
-    <t>44,61%</t>
-  </si>
-  <si>
-    <t>50,27%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>49,75%</t>
-  </si>
-  <si>
-    <t>46,3%</t>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>39,62%</t>
+  </si>
+  <si>
+    <t>52,23%</t>
+  </si>
+  <si>
+    <t>45,71%</t>
+  </si>
+  <si>
+    <t>59,33%</t>
+  </si>
+  <si>
+    <t>61,22%</t>
+  </si>
+  <si>
+    <t>54,92%</t>
+  </si>
+  <si>
+    <t>67,62%</t>
+  </si>
+  <si>
+    <t>56,8%</t>
+  </si>
+  <si>
+    <t>51,55%</t>
+  </si>
+  <si>
+    <t>61,09%</t>
+  </si>
+  <si>
+    <t>47,77%</t>
+  </si>
+  <si>
+    <t>40,67%</t>
+  </si>
+  <si>
+    <t>54,29%</t>
+  </si>
+  <si>
+    <t>38,78%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>45,08%</t>
+  </si>
+  <si>
+    <t>43,2%</t>
+  </si>
+  <si>
+    <t>38,91%</t>
+  </si>
+  <si>
+    <t>48,45%</t>
+  </si>
+  <si>
+    <t>47,66%</t>
+  </si>
+  <si>
+    <t>41,56%</t>
+  </si>
+  <si>
+    <t>53,8%</t>
+  </si>
+  <si>
+    <t>58,69%</t>
+  </si>
+  <si>
+    <t>52,02%</t>
+  </si>
+  <si>
+    <t>63,79%</t>
+  </si>
+  <si>
+    <t>53,28%</t>
+  </si>
+  <si>
+    <t>57,39%</t>
+  </si>
+  <si>
+    <t>52,34%</t>
+  </si>
+  <si>
+    <t>46,2%</t>
+  </si>
+  <si>
+    <t>58,44%</t>
+  </si>
+  <si>
+    <t>41,31%</t>
+  </si>
+  <si>
+    <t>36,21%</t>
+  </si>
+  <si>
+    <t>47,98%</t>
+  </si>
+  <si>
+    <t>46,72%</t>
+  </si>
+  <si>
+    <t>42,61%</t>
+  </si>
+  <si>
+    <t>43,66%</t>
+  </si>
+  <si>
+    <t>47,69%</t>
+  </si>
+  <si>
+    <t>54,88%</t>
+  </si>
+  <si>
+    <t>50,94%</t>
+  </si>
+  <si>
+    <t>58,63%</t>
+  </si>
+  <si>
+    <t>49,41%</t>
+  </si>
+  <si>
+    <t>46,53%</t>
+  </si>
+  <si>
+    <t>51,99%</t>
+  </si>
+  <si>
+    <t>56,34%</t>
+  </si>
+  <si>
+    <t>52,31%</t>
+  </si>
+  <si>
+    <t>45,12%</t>
+  </si>
+  <si>
+    <t>41,37%</t>
+  </si>
+  <si>
+    <t>49,06%</t>
+  </si>
+  <si>
+    <t>50,59%</t>
+  </si>
+  <si>
+    <t>48,01%</t>
   </si>
   <si>
     <t>53,47%</t>
   </si>
   <si>
-    <t>61,15%</t>
-  </si>
-  <si>
-    <t>57,64%</t>
-  </si>
-  <si>
-    <t>64,47%</t>
-  </si>
-  <si>
-    <t>55,6%</t>
-  </si>
-  <si>
-    <t>53,21%</t>
-  </si>
-  <si>
-    <t>58,31%</t>
-  </si>
-  <si>
-    <t>50,25%</t>
-  </si>
-  <si>
-    <t>46,53%</t>
-  </si>
-  <si>
-    <t>53,7%</t>
-  </si>
-  <si>
-    <t>38,85%</t>
-  </si>
-  <si>
-    <t>35,53%</t>
-  </si>
-  <si>
-    <t>42,36%</t>
-  </si>
-  <si>
-    <t>44,4%</t>
-  </si>
-  <si>
-    <t>41,69%</t>
-  </si>
-  <si>
-    <t>46,79%</t>
-  </si>
-  <si>
-    <t>47,02%</t>
-  </si>
-  <si>
-    <t>45,43%</t>
-  </si>
-  <si>
-    <t>48,88%</t>
-  </si>
-  <si>
-    <t>62,01%</t>
-  </si>
-  <si>
-    <t>60,35%</t>
-  </si>
-  <si>
-    <t>63,68%</t>
-  </si>
-  <si>
-    <t>54,63%</t>
-  </si>
-  <si>
-    <t>53,39%</t>
-  </si>
-  <si>
-    <t>55,91%</t>
-  </si>
-  <si>
-    <t>52,98%</t>
-  </si>
-  <si>
-    <t>51,12%</t>
-  </si>
-  <si>
-    <t>54,57%</t>
-  </si>
-  <si>
-    <t>37,99%</t>
-  </si>
-  <si>
-    <t>36,32%</t>
-  </si>
-  <si>
-    <t>39,65%</t>
-  </si>
-  <si>
-    <t>45,37%</t>
-  </si>
-  <si>
-    <t>44,09%</t>
-  </si>
-  <si>
-    <t>46,61%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Hogares con personas con enfermedades crónicas en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>52,44%</t>
-  </si>
-  <si>
-    <t>47,65%</t>
-  </si>
-  <si>
-    <t>57,59%</t>
-  </si>
-  <si>
-    <t>69,87%</t>
-  </si>
-  <si>
-    <t>65,05%</t>
-  </si>
-  <si>
-    <t>73,66%</t>
-  </si>
-  <si>
-    <t>61,31%</t>
-  </si>
-  <si>
-    <t>58,11%</t>
-  </si>
-  <si>
-    <t>64,21%</t>
-  </si>
-  <si>
-    <t>47,56%</t>
-  </si>
-  <si>
-    <t>42,41%</t>
-  </si>
-  <si>
-    <t>52,35%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>38,69%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>41,89%</t>
-  </si>
-  <si>
-    <t>59,14%</t>
-  </si>
-  <si>
-    <t>53,62%</t>
-  </si>
-  <si>
-    <t>64,43%</t>
-  </si>
-  <si>
-    <t>68,61%</t>
-  </si>
-  <si>
-    <t>63,23%</t>
-  </si>
-  <si>
-    <t>73,51%</t>
-  </si>
-  <si>
-    <t>64,0%</t>
-  </si>
-  <si>
-    <t>59,85%</t>
-  </si>
-  <si>
-    <t>67,64%</t>
-  </si>
-  <si>
-    <t>40,86%</t>
-  </si>
-  <si>
-    <t>35,57%</t>
-  </si>
-  <si>
-    <t>46,38%</t>
-  </si>
-  <si>
-    <t>31,39%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>36,77%</t>
-  </si>
-  <si>
-    <t>36,0%</t>
-  </si>
-  <si>
-    <t>32,36%</t>
-  </si>
-  <si>
-    <t>40,15%</t>
-  </si>
-  <si>
-    <t>59,58%</t>
-  </si>
-  <si>
-    <t>55,76%</t>
-  </si>
-  <si>
-    <t>73,55%</t>
-  </si>
-  <si>
-    <t>70,02%</t>
-  </si>
-  <si>
-    <t>76,85%</t>
-  </si>
-  <si>
-    <t>66,6%</t>
-  </si>
-  <si>
-    <t>64,13%</t>
-  </si>
-  <si>
-    <t>69,3%</t>
-  </si>
-  <si>
-    <t>40,42%</t>
-  </si>
-  <si>
-    <t>44,24%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>33,4%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>35,87%</t>
-  </si>
-  <si>
-    <t>55,38%</t>
-  </si>
-  <si>
-    <t>48,6%</t>
-  </si>
-  <si>
-    <t>62,61%</t>
-  </si>
-  <si>
-    <t>82,32%</t>
-  </si>
-  <si>
-    <t>76,55%</t>
-  </si>
-  <si>
-    <t>86,89%</t>
-  </si>
-  <si>
-    <t>69,06%</t>
-  </si>
-  <si>
-    <t>64,26%</t>
-  </si>
-  <si>
-    <t>73,5%</t>
-  </si>
-  <si>
-    <t>44,62%</t>
-  </si>
-  <si>
-    <t>37,39%</t>
-  </si>
-  <si>
-    <t>51,4%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>35,74%</t>
-  </si>
-  <si>
-    <t>56,55%</t>
-  </si>
-  <si>
-    <t>68,33%</t>
-  </si>
-  <si>
-    <t>77,55%</t>
-  </si>
-  <si>
-    <t>72,58%</t>
-  </si>
-  <si>
-    <t>82,43%</t>
-  </si>
-  <si>
-    <t>70,16%</t>
-  </si>
-  <si>
-    <t>66,16%</t>
-  </si>
-  <si>
-    <t>74,1%</t>
-  </si>
-  <si>
-    <t>31,67%</t>
-  </si>
-  <si>
-    <t>43,45%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>33,84%</t>
-  </si>
-  <si>
-    <t>57,92%</t>
-  </si>
-  <si>
-    <t>61,64%</t>
-  </si>
-  <si>
-    <t>68,27%</t>
-  </si>
-  <si>
-    <t>64,78%</t>
-  </si>
-  <si>
-    <t>71,93%</t>
-  </si>
-  <si>
-    <t>63,22%</t>
-  </si>
-  <si>
-    <t>60,1%</t>
-  </si>
-  <si>
-    <t>65,95%</t>
-  </si>
-  <si>
-    <t>42,08%</t>
-  </si>
-  <si>
-    <t>38,36%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>35,22%</t>
-  </si>
-  <si>
-    <t>36,78%</t>
-  </si>
-  <si>
-    <t>34,05%</t>
-  </si>
-  <si>
-    <t>39,9%</t>
-  </si>
-  <si>
-    <t>46,95%</t>
-  </si>
-  <si>
-    <t>43,21%</t>
-  </si>
-  <si>
-    <t>50,66%</t>
-  </si>
-  <si>
-    <t>58,16%</t>
-  </si>
-  <si>
-    <t>54,97%</t>
-  </si>
-  <si>
-    <t>62,1%</t>
-  </si>
-  <si>
-    <t>52,71%</t>
-  </si>
-  <si>
-    <t>50,31%</t>
-  </si>
-  <si>
-    <t>55,22%</t>
-  </si>
-  <si>
-    <t>53,05%</t>
-  </si>
-  <si>
-    <t>49,34%</t>
-  </si>
-  <si>
-    <t>56,79%</t>
-  </si>
-  <si>
-    <t>41,84%</t>
-  </si>
-  <si>
-    <t>37,9%</t>
-  </si>
-  <si>
-    <t>45,03%</t>
-  </si>
-  <si>
-    <t>47,29%</t>
-  </si>
-  <si>
-    <t>44,78%</t>
-  </si>
-  <si>
-    <t>49,69%</t>
-  </si>
-  <si>
-    <t>55,27%</t>
-  </si>
-  <si>
-    <t>53,67%</t>
-  </si>
-  <si>
-    <t>57,07%</t>
-  </si>
-  <si>
-    <t>68,8%</t>
-  </si>
-  <si>
-    <t>67,34%</t>
-  </si>
-  <si>
-    <t>70,4%</t>
-  </si>
-  <si>
-    <t>62,16%</t>
-  </si>
-  <si>
-    <t>60,88%</t>
-  </si>
-  <si>
-    <t>63,39%</t>
-  </si>
-  <si>
-    <t>44,73%</t>
-  </si>
-  <si>
-    <t>42,93%</t>
-  </si>
-  <si>
-    <t>46,33%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>37,84%</t>
-  </si>
-  <si>
-    <t>36,61%</t>
-  </si>
-  <si>
-    <t>39,12%</t>
-  </si>
-  <si>
-    <t>Hogares con personas con enfermedades crónicas en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>55,37%</t>
-  </si>
-  <si>
-    <t>49,76%</t>
-  </si>
-  <si>
-    <t>61,02%</t>
-  </si>
-  <si>
-    <t>66,99%</t>
-  </si>
-  <si>
-    <t>61,61%</t>
-  </si>
-  <si>
-    <t>72,28%</t>
-  </si>
-  <si>
-    <t>61,13%</t>
-  </si>
-  <si>
-    <t>56,89%</t>
-  </si>
-  <si>
-    <t>64,99%</t>
-  </si>
-  <si>
-    <t>44,63%</t>
-  </si>
-  <si>
-    <t>38,98%</t>
-  </si>
-  <si>
-    <t>50,24%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>38,39%</t>
-  </si>
-  <si>
-    <t>38,87%</t>
-  </si>
-  <si>
-    <t>35,01%</t>
-  </si>
-  <si>
-    <t>43,11%</t>
-  </si>
-  <si>
-    <t>56,92%</t>
-  </si>
-  <si>
-    <t>52,67%</t>
-  </si>
-  <si>
-    <t>61,28%</t>
-  </si>
-  <si>
-    <t>70,91%</t>
-  </si>
-  <si>
-    <t>66,97%</t>
-  </si>
-  <si>
-    <t>74,61%</t>
-  </si>
-  <si>
-    <t>64,06%</t>
-  </si>
-  <si>
-    <t>61,0%</t>
-  </si>
-  <si>
-    <t>66,74%</t>
-  </si>
-  <si>
-    <t>43,08%</t>
-  </si>
-  <si>
-    <t>38,72%</t>
-  </si>
-  <si>
-    <t>47,33%</t>
-  </si>
-  <si>
-    <t>29,09%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>33,03%</t>
-  </si>
-  <si>
-    <t>35,94%</t>
-  </si>
-  <si>
-    <t>33,26%</t>
-  </si>
-  <si>
-    <t>39,0%</t>
-  </si>
-  <si>
-    <t>52,07%</t>
-  </si>
-  <si>
-    <t>46,64%</t>
-  </si>
-  <si>
-    <t>57,36%</t>
-  </si>
-  <si>
-    <t>61,38%</t>
-  </si>
-  <si>
-    <t>66,3%</t>
-  </si>
-  <si>
-    <t>56,85%</t>
-  </si>
-  <si>
-    <t>52,96%</t>
-  </si>
-  <si>
-    <t>60,43%</t>
-  </si>
-  <si>
-    <t>47,93%</t>
-  </si>
-  <si>
-    <t>42,64%</t>
-  </si>
-  <si>
-    <t>53,36%</t>
-  </si>
-  <si>
-    <t>38,62%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>43,15%</t>
-  </si>
-  <si>
-    <t>39,57%</t>
-  </si>
-  <si>
-    <t>47,04%</t>
-  </si>
-  <si>
-    <t>57,27%</t>
-  </si>
-  <si>
-    <t>52,18%</t>
-  </si>
-  <si>
-    <t>62,74%</t>
-  </si>
-  <si>
-    <t>70,36%</t>
-  </si>
-  <si>
-    <t>65,14%</t>
-  </si>
-  <si>
-    <t>74,82%</t>
-  </si>
-  <si>
-    <t>60,11%</t>
-  </si>
-  <si>
-    <t>67,45%</t>
-  </si>
-  <si>
-    <t>42,73%</t>
-  </si>
-  <si>
-    <t>37,26%</t>
-  </si>
-  <si>
-    <t>47,82%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>34,86%</t>
-  </si>
-  <si>
-    <t>32,55%</t>
-  </si>
-  <si>
-    <t>39,89%</t>
-  </si>
-  <si>
-    <t>52,23%</t>
-  </si>
-  <si>
-    <t>45,33%</t>
-  </si>
-  <si>
-    <t>58,88%</t>
-  </si>
-  <si>
-    <t>61,22%</t>
-  </si>
-  <si>
-    <t>55,03%</t>
-  </si>
-  <si>
-    <t>67,25%</t>
-  </si>
-  <si>
-    <t>56,8%</t>
-  </si>
-  <si>
-    <t>52,13%</t>
-  </si>
-  <si>
-    <t>61,37%</t>
-  </si>
-  <si>
-    <t>47,77%</t>
-  </si>
-  <si>
-    <t>41,12%</t>
-  </si>
-  <si>
-    <t>54,67%</t>
-  </si>
-  <si>
-    <t>38,78%</t>
-  </si>
-  <si>
-    <t>32,75%</t>
-  </si>
-  <si>
-    <t>44,97%</t>
-  </si>
-  <si>
-    <t>43,2%</t>
-  </si>
-  <si>
-    <t>38,63%</t>
-  </si>
-  <si>
-    <t>47,87%</t>
-  </si>
-  <si>
-    <t>47,66%</t>
-  </si>
-  <si>
-    <t>41,71%</t>
-  </si>
-  <si>
-    <t>54,13%</t>
-  </si>
-  <si>
-    <t>58,69%</t>
-  </si>
-  <si>
-    <t>52,78%</t>
-  </si>
-  <si>
-    <t>64,74%</t>
-  </si>
-  <si>
-    <t>53,28%</t>
-  </si>
-  <si>
-    <t>49,2%</t>
-  </si>
-  <si>
-    <t>57,95%</t>
-  </si>
-  <si>
-    <t>52,34%</t>
-  </si>
-  <si>
-    <t>45,87%</t>
-  </si>
-  <si>
-    <t>58,29%</t>
-  </si>
-  <si>
-    <t>41,31%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>47,22%</t>
-  </si>
-  <si>
-    <t>46,72%</t>
-  </si>
-  <si>
-    <t>42,05%</t>
-  </si>
-  <si>
-    <t>50,8%</t>
-  </si>
-  <si>
-    <t>43,66%</t>
-  </si>
-  <si>
-    <t>39,84%</t>
-  </si>
-  <si>
-    <t>48,19%</t>
-  </si>
-  <si>
-    <t>54,88%</t>
-  </si>
-  <si>
-    <t>51,29%</t>
-  </si>
-  <si>
-    <t>58,75%</t>
-  </si>
-  <si>
-    <t>49,41%</t>
-  </si>
-  <si>
-    <t>46,82%</t>
-  </si>
-  <si>
-    <t>52,47%</t>
-  </si>
-  <si>
-    <t>56,34%</t>
-  </si>
-  <si>
-    <t>51,81%</t>
-  </si>
-  <si>
-    <t>60,16%</t>
-  </si>
-  <si>
-    <t>45,12%</t>
-  </si>
-  <si>
-    <t>41,25%</t>
-  </si>
-  <si>
-    <t>48,71%</t>
-  </si>
-  <si>
-    <t>50,59%</t>
-  </si>
-  <si>
-    <t>47,53%</t>
-  </si>
-  <si>
-    <t>53,18%</t>
-  </si>
-  <si>
     <t>49,54%</t>
   </si>
   <si>
-    <t>46,05%</t>
-  </si>
-  <si>
-    <t>52,88%</t>
+    <t>45,73%</t>
+  </si>
+  <si>
+    <t>53,54%</t>
   </si>
   <si>
     <t>59,8%</t>
   </si>
   <si>
-    <t>56,2%</t>
-  </si>
-  <si>
-    <t>63,1%</t>
+    <t>56,12%</t>
+  </si>
+  <si>
+    <t>63,26%</t>
   </si>
   <si>
     <t>54,82%</t>
   </si>
   <si>
-    <t>52,22%</t>
+    <t>52,41%</t>
+  </si>
+  <si>
+    <t>57,14%</t>
   </si>
   <si>
     <t>50,46%</t>
   </si>
   <si>
-    <t>47,12%</t>
-  </si>
-  <si>
-    <t>53,95%</t>
+    <t>46,46%</t>
+  </si>
+  <si>
+    <t>54,27%</t>
   </si>
   <si>
     <t>40,2%</t>
   </si>
   <si>
-    <t>36,9%</t>
-  </si>
-  <si>
-    <t>43,8%</t>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>43,88%</t>
   </si>
   <si>
     <t>45,18%</t>
   </si>
   <si>
-    <t>47,78%</t>
+    <t>42,86%</t>
+  </si>
+  <si>
+    <t>47,59%</t>
   </si>
   <si>
     <t>51,1%</t>
@@ -1427,31 +1433,25 @@
     <t>49,28%</t>
   </si>
   <si>
-    <t>52,72%</t>
+    <t>52,77%</t>
   </si>
   <si>
     <t>62,37%</t>
   </si>
   <si>
-    <t>60,57%</t>
-  </si>
-  <si>
-    <t>63,93%</t>
-  </si>
-  <si>
-    <t>56,86%</t>
-  </si>
-  <si>
-    <t>55,74%</t>
-  </si>
-  <si>
-    <t>58,03%</t>
+    <t>60,71%</t>
+  </si>
+  <si>
+    <t>64,02%</t>
+  </si>
+  <si>
+    <t>58,0%</t>
   </si>
   <si>
     <t>48,9%</t>
   </si>
   <si>
-    <t>47,28%</t>
+    <t>47,23%</t>
   </si>
   <si>
     <t>50,72%</t>
@@ -1460,28 +1460,22 @@
     <t>37,63%</t>
   </si>
   <si>
-    <t>36,07%</t>
-  </si>
-  <si>
-    <t>39,43%</t>
-  </si>
-  <si>
-    <t>43,14%</t>
-  </si>
-  <si>
-    <t>41,97%</t>
-  </si>
-  <si>
-    <t>44,26%</t>
-  </si>
-  <si>
-    <t>Hogares con personas con enfermedades crónicas en 2023 (Tasa respuesta: 100,0%)</t>
+    <t>35,98%</t>
+  </si>
+  <si>
+    <t>39,29%</t>
+  </si>
+  <si>
+    <t>42,0%</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen personas con enfermedades crónicas en 2023 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>99,38%</t>
   </si>
   <si>
-    <t>97,38%</t>
+    <t>97,05%</t>
   </si>
   <si>
     <t>99,94%</t>
@@ -1490,7 +1484,7 @@
     <t>99,59%</t>
   </si>
   <si>
-    <t>98,64%</t>
+    <t>98,49%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -1499,439 +1493,445 @@
     <t>99,49%</t>
   </si>
   <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>79,92%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>87,16%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
     <t>98,25%</t>
   </si>
   <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
   </si>
   <si>
     <t>1,75%</t>
   </si>
   <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
   </si>
   <si>
     <t>96,05%</t>
   </si>
   <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
   </si>
   <si>
     <t>3,95%</t>
   </si>
   <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>81,17%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>87,1%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
     <t>96,98%</t>
   </si>
   <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
   </si>
   <si>
     <t>96,49%</t>
   </si>
   <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
   </si>
   <si>
     <t>96,7%</t>
   </si>
   <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
   </si>
   <si>
     <t>3,02%</t>
   </si>
   <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
   </si>
   <si>
     <t>3,51%</t>
   </si>
   <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
   </si>
   <si>
     <t>3,3%</t>
   </si>
   <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
   </si>
   <si>
     <t>93,48%</t>
   </si>
   <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
     <t>91,06%</t>
   </si>
   <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
     <t>93,27%</t>
   </si>
   <si>
-    <t>91,78%</t>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
   </si>
   <si>
     <t>6,52%</t>
   </si>
   <si>
-    <t>4,73%</t>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
   </si>
   <si>
     <t>8,94%</t>
   </si>
   <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
     <t>6,73%</t>
   </si>
   <si>
-    <t>8,22%</t>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
   </si>
   <si>
     <t>96,75%</t>
   </si>
   <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
   </si>
   <si>
     <t>95,98%</t>
   </si>
   <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
     <t>96,34%</t>
   </si>
   <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
   </si>
   <si>
     <t>3,25%</t>
   </si>
   <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
   </si>
   <si>
     <t>4,02%</t>
   </si>
   <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
     <t>3,66%</t>
   </si>
   <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
   </si>
 </sst>
 </file>
@@ -2343,7 +2343,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C5EC7A7-060E-4A5B-9B19-176E656414FE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F245E4A-B7D5-491F-AEE0-77B2F8AC7CC9}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2655,10 +2655,10 @@
         <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2673,13 +2673,13 @@
         <v>271829</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>190</v>
@@ -2688,13 +2688,13 @@
         <v>192000</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>448</v>
@@ -2703,13 +2703,13 @@
         <v>463829</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2765,7 +2765,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2777,13 +2777,13 @@
         <v>142433</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>227</v>
@@ -2792,13 +2792,13 @@
         <v>227388</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>367</v>
@@ -2807,13 +2807,13 @@
         <v>369821</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2828,13 +2828,13 @@
         <v>176413</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>108</v>
@@ -2843,13 +2843,13 @@
         <v>108024</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>278</v>
@@ -2858,13 +2858,13 @@
         <v>284437</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2920,7 +2920,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2932,13 +2932,13 @@
         <v>182458</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>263</v>
@@ -2947,13 +2947,13 @@
         <v>254257</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>450</v>
@@ -2962,13 +2962,13 @@
         <v>436715</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2983,13 +2983,13 @@
         <v>176213</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>121</v>
@@ -2998,13 +2998,13 @@
         <v>117199</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>296</v>
@@ -3013,13 +3013,13 @@
         <v>293412</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3075,7 +3075,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3087,13 +3087,13 @@
         <v>97649</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>123</v>
@@ -3102,13 +3102,13 @@
         <v>129100</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>226</v>
@@ -3117,13 +3117,13 @@
         <v>226749</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3138,13 +3138,13 @@
         <v>105659</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H17" s="7">
         <v>75</v>
@@ -3153,13 +3153,13 @@
         <v>78568</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M17" s="7">
         <v>178</v>
@@ -3168,13 +3168,13 @@
         <v>184227</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3430,10 +3430,10 @@
         <v>131</v>
       </c>
       <c r="P22" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3448,13 +3448,13 @@
         <v>339678</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H23" s="7">
         <v>247</v>
@@ -3463,13 +3463,13 @@
         <v>255063</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M23" s="7">
         <v>570</v>
@@ -3478,13 +3478,13 @@
         <v>594741</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="P23" s="7" t="s">
-        <v>141</v>
-      </c>
       <c r="Q23" s="7" t="s">
-        <v>142</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3540,7 +3540,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3552,13 +3552,13 @@
         <v>370059</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="H25" s="7">
         <v>452</v>
@@ -3567,13 +3567,13 @@
         <v>479085</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="M25" s="7">
         <v>824</v>
@@ -3582,13 +3582,13 @@
         <v>849144</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3603,13 +3603,13 @@
         <v>373736</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="H26" s="7">
         <v>293</v>
@@ -3618,13 +3618,13 @@
         <v>304426</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="M26" s="7">
         <v>657</v>
@@ -3633,13 +3633,13 @@
         <v>678162</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3707,13 +3707,13 @@
         <v>1540782</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H28" s="7">
         <v>2047</v>
@@ -3722,28 +3722,28 @@
         <v>2095582</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M28" s="7">
         <v>3585</v>
       </c>
       <c r="N28" s="7">
-        <v>3636364</v>
+        <v>3636363</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3755,16 +3755,16 @@
         <v>1676</v>
       </c>
       <c r="D29" s="7">
-        <v>1735761</v>
+        <v>1735762</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="H29" s="7">
         <v>1250</v>
@@ -3773,13 +3773,13 @@
         <v>1283616</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M29" s="7">
         <v>2926</v>
@@ -3788,13 +3788,13 @@
         <v>3019377</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3806,7 +3806,7 @@
         <v>3214</v>
       </c>
       <c r="D30" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -3836,7 +3836,7 @@
         <v>6511</v>
       </c>
       <c r="N30" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -3850,7 +3850,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -3874,7 +3874,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA86D3CB-3FD5-486D-A405-C839A1F8EC0E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11FDCDB2-1860-4C40-9EC7-262520F77DD6}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3891,7 +3891,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3996,39 +3996,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4041,39 +4041,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4086,39 +4086,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4135,13 +4135,13 @@
         <v>265085</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="H7" s="7">
         <v>334</v>
@@ -4150,13 +4150,13 @@
         <v>365977</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="M7" s="7">
         <v>575</v>
@@ -4165,13 +4165,13 @@
         <v>631061</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4186,13 +4186,13 @@
         <v>240442</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="H8" s="7">
         <v>146</v>
@@ -4201,13 +4201,13 @@
         <v>157788</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="M8" s="7">
         <v>377</v>
@@ -4216,13 +4216,13 @@
         <v>398231</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4278,7 +4278,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4290,13 +4290,13 @@
         <v>191653</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="H10" s="7">
         <v>219</v>
@@ -4305,13 +4305,13 @@
         <v>233986</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="M10" s="7">
         <v>404</v>
@@ -4320,13 +4320,13 @@
         <v>425639</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4341,13 +4341,13 @@
         <v>132393</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="H11" s="7">
         <v>98</v>
@@ -4356,13 +4356,13 @@
         <v>107034</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="M11" s="7">
         <v>232</v>
@@ -4371,13 +4371,13 @@
         <v>239427</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4433,7 +4433,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4445,13 +4445,13 @@
         <v>398423</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="H13" s="7">
         <v>457</v>
@@ -4460,13 +4460,13 @@
         <v>497328</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="M13" s="7">
         <v>829</v>
@@ -4475,13 +4475,13 @@
         <v>895751</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4496,10 +4496,10 @@
         <v>270297</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>228</v>
@@ -4588,7 +4588,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4755,13 +4755,13 @@
         <v>171526</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>237</v>
+        <v>253</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H19" s="7">
         <v>209</v>
@@ -4770,13 +4770,13 @@
         <v>217152</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M19" s="7">
         <v>372</v>
@@ -4785,13 +4785,13 @@
         <v>388678</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4806,13 +4806,13 @@
         <v>102455</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="H20" s="7">
         <v>60</v>
@@ -4821,13 +4821,13 @@
         <v>62879</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="M20" s="7">
         <v>158</v>
@@ -4836,13 +4836,13 @@
         <v>165334</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4910,13 +4910,13 @@
         <v>383905</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>155</v>
+        <v>272</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="H22" s="7">
         <v>432</v>
@@ -4925,13 +4925,13 @@
         <v>473696</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="M22" s="7">
         <v>793</v>
@@ -4940,13 +4940,13 @@
         <v>857601</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>275</v>
+        <v>164</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4961,13 +4961,13 @@
         <v>278883</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>145</v>
+        <v>281</v>
       </c>
       <c r="H23" s="7">
         <v>204</v>
@@ -4976,13 +4976,13 @@
         <v>220157</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="M23" s="7">
         <v>461</v>
@@ -4991,13 +4991,13 @@
         <v>499040</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>284</v>
+        <v>174</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5053,7 +5053,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -5065,13 +5065,13 @@
         <v>365798</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="H25" s="7">
         <v>435</v>
@@ -5080,13 +5080,13 @@
         <v>479157</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="M25" s="7">
         <v>766</v>
@@ -5095,13 +5095,13 @@
         <v>844955</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5116,13 +5116,13 @@
         <v>413300</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="H26" s="7">
         <v>322</v>
@@ -5131,13 +5131,13 @@
         <v>344696</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="M26" s="7">
         <v>708</v>
@@ -5146,13 +5146,13 @@
         <v>757996</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5220,13 +5220,13 @@
         <v>1894130</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="H28" s="7">
         <v>2260</v>
@@ -5235,13 +5235,13 @@
         <v>2448055</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="M28" s="7">
         <v>4021</v>
@@ -5250,13 +5250,13 @@
         <v>4342185</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5271,13 +5271,13 @@
         <v>1532649</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="H29" s="7">
         <v>1038</v>
@@ -5286,13 +5286,13 @@
         <v>1110254</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="M29" s="7">
         <v>2486</v>
@@ -5301,13 +5301,13 @@
         <v>2642903</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5363,7 +5363,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -5387,7 +5387,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53564978-3A47-4C44-8482-6CA8EB5A329C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E10ADA8-C4C2-4377-BCBA-B2FBF0EAF2F0}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5404,7 +5404,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5511,13 +5511,13 @@
         <v>162656</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="H4" s="7">
         <v>182</v>
@@ -5526,13 +5526,13 @@
         <v>193394</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="M4" s="7">
         <v>333</v>
@@ -5541,13 +5541,13 @@
         <v>356051</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5562,13 +5562,13 @@
         <v>131105</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="H5" s="7">
         <v>95</v>
@@ -5577,13 +5577,13 @@
         <v>95309</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="M5" s="7">
         <v>210</v>
@@ -5592,13 +5592,13 @@
         <v>226413</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5666,13 +5666,13 @@
         <v>286067</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="H7" s="7">
         <v>338</v>
@@ -5681,13 +5681,13 @@
         <v>370929</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="M7" s="7">
         <v>609</v>
@@ -5696,13 +5696,13 @@
         <v>656996</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5717,13 +5717,13 @@
         <v>216508</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="H8" s="7">
         <v>146</v>
@@ -5732,13 +5732,13 @@
         <v>152155</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="M8" s="7">
         <v>350</v>
@@ -5747,13 +5747,13 @@
         <v>368663</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5809,7 +5809,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5821,13 +5821,13 @@
         <v>165880</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="H10" s="7">
         <v>197</v>
@@ -5836,13 +5836,13 @@
         <v>206425</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>108</v>
+        <v>364</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="M10" s="7">
         <v>373</v>
@@ -5851,13 +5851,13 @@
         <v>372305</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>363</v>
+        <v>39</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5872,13 +5872,13 @@
         <v>152685</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="H11" s="7">
         <v>135</v>
@@ -5887,13 +5887,13 @@
         <v>129884</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>116</v>
+        <v>373</v>
       </c>
       <c r="M11" s="7">
         <v>294</v>
@@ -5902,13 +5902,13 @@
         <v>282569</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>371</v>
+        <v>47</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5964,7 +5964,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5976,13 +5976,13 @@
         <v>211882</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="H13" s="7">
         <v>247</v>
@@ -5991,13 +5991,13 @@
         <v>272484</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="M13" s="7">
         <v>452</v>
@@ -6006,13 +6006,13 @@
         <v>484366</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>130</v>
+        <v>382</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6027,13 +6027,13 @@
         <v>158082</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="H14" s="7">
         <v>111</v>
@@ -6042,13 +6042,13 @@
         <v>114799</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="M14" s="7">
         <v>260</v>
@@ -6057,13 +6057,13 @@
         <v>272881</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>138</v>
+        <v>391</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6119,7 +6119,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6131,13 +6131,13 @@
         <v>110311</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="H16" s="7">
         <v>134</v>
@@ -6146,13 +6146,13 @@
         <v>133829</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="M16" s="7">
         <v>246</v>
@@ -6161,13 +6161,13 @@
         <v>244140</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6182,13 +6182,13 @@
         <v>100910</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="H17" s="7">
         <v>89</v>
@@ -6197,13 +6197,13 @@
         <v>84758</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="M17" s="7">
         <v>189</v>
@@ -6212,13 +6212,13 @@
         <v>185668</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6286,13 +6286,13 @@
         <v>125413</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="H19" s="7">
         <v>148</v>
@@ -6301,13 +6301,13 @@
         <v>160286</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="M19" s="7">
         <v>274</v>
@@ -6316,13 +6316,13 @@
         <v>285699</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>415</v>
+        <v>127</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6337,13 +6337,13 @@
         <v>137710</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="H20" s="7">
         <v>115</v>
@@ -6352,13 +6352,13 @@
         <v>112829</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="M20" s="7">
         <v>248</v>
@@ -6367,13 +6367,13 @@
         <v>250539</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>425</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6441,13 +6441,13 @@
         <v>286627</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>427</v>
+        <v>65</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H22" s="7">
         <v>340</v>
@@ -6456,13 +6456,13 @@
         <v>379352</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M22" s="7">
         <v>596</v>
@@ -6471,13 +6471,13 @@
         <v>665979</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6492,13 +6492,13 @@
         <v>369931</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>437</v>
+        <v>57</v>
       </c>
       <c r="H23" s="7">
         <v>306</v>
@@ -6584,7 +6584,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6632,7 +6632,7 @@
         <v>451</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>360</v>
+        <v>452</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6647,13 +6647,13 @@
         <v>392876</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="H26" s="7">
         <v>320</v>
@@ -6662,13 +6662,13 @@
         <v>332081</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="M26" s="7">
         <v>698</v>
@@ -6677,13 +6677,13 @@
         <v>724957</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>367</v>
+        <v>460</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6751,13 +6751,13 @@
         <v>1734544</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="H28" s="7">
         <v>2021</v>
@@ -6766,13 +6766,13 @@
         <v>2210784</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="M28" s="7">
         <v>3690</v>
@@ -6781,10 +6781,10 @@
         <v>3945329</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>466</v>
+        <v>16</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>467</v>
+        <v>26</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>468</v>
@@ -6832,13 +6832,13 @@
         <v>2993563</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>475</v>
       </c>
-      <c r="P29" s="7" t="s">
-        <v>476</v>
-      </c>
       <c r="Q29" s="7" t="s">
-        <v>477</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6894,7 +6894,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -6918,7 +6918,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19E5FD83-42F6-41C3-B4AA-DC6B14A082C9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1F438D8-9C5B-4007-8E33-C05666905699}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6935,7 +6935,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7042,13 +7042,13 @@
         <v>258688</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>479</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>480</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>481</v>
       </c>
       <c r="H4" s="7">
         <v>536</v>
@@ -7057,13 +7057,13 @@
         <v>270299</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>482</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>483</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>484</v>
       </c>
       <c r="M4" s="7">
         <v>864</v>
@@ -7072,13 +7072,13 @@
         <v>528986</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>485</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>486</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7093,13 +7093,13 @@
         <v>1610</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>488</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>489</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>490</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -7108,13 +7108,13 @@
         <v>1104</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>491</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>492</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>493</v>
       </c>
       <c r="M5" s="7">
         <v>5</v>
@@ -7123,13 +7123,13 @@
         <v>2714</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>494</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>495</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7197,13 +7197,13 @@
         <v>503352</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>497</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>498</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>499</v>
       </c>
       <c r="H7" s="7">
         <v>704</v>
@@ -7212,13 +7212,13 @@
         <v>544114</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>500</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>501</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>502</v>
       </c>
       <c r="M7" s="7">
         <v>1076</v>
@@ -7227,13 +7227,13 @@
         <v>1047467</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>503</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>504</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7248,13 +7248,13 @@
         <v>15945</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>506</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>507</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>508</v>
       </c>
       <c r="H8" s="7">
         <v>13</v>
@@ -7263,13 +7263,13 @@
         <v>10452</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>509</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>510</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>511</v>
       </c>
       <c r="M8" s="7">
         <v>23</v>
@@ -7278,13 +7278,13 @@
         <v>26397</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>512</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>513</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7340,7 +7340,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -7352,13 +7352,13 @@
         <v>317147</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>515</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>516</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>517</v>
       </c>
       <c r="H10" s="7">
         <v>521</v>
@@ -7367,13 +7367,13 @@
         <v>361737</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>518</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>519</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>486</v>
       </c>
       <c r="M10" s="7">
         <v>875</v>
@@ -7382,13 +7382,13 @@
         <v>678884</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>520</v>
       </c>
-      <c r="P10" s="7" t="s">
-        <v>521</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>522</v>
+        <v>497</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7403,13 +7403,13 @@
         <v>5093</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>523</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>524</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>525</v>
       </c>
       <c r="H11" s="7">
         <v>15</v>
@@ -7418,13 +7418,13 @@
         <v>11547</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>526</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>496</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>527</v>
       </c>
       <c r="M11" s="7">
         <v>21</v>
@@ -7433,13 +7433,13 @@
         <v>16640</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>528</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>529</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7495,7 +7495,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -7507,13 +7507,13 @@
         <v>317342</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>531</v>
+        <v>503</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="H13" s="7">
         <v>575</v>
@@ -7522,13 +7522,13 @@
         <v>392903</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="M13" s="7">
         <v>859</v>
@@ -7537,13 +7537,13 @@
         <v>710245</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7558,13 +7558,13 @@
         <v>4898</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>540</v>
+        <v>511</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="H14" s="7">
         <v>24</v>
@@ -7573,13 +7573,13 @@
         <v>35653</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="M14" s="7">
         <v>32</v>
@@ -7588,13 +7588,13 @@
         <v>40551</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7650,7 +7650,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7662,13 +7662,13 @@
         <v>195830</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="H16" s="7">
         <v>490</v>
@@ -7677,13 +7677,13 @@
         <v>257890</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>553</v>
+        <v>484</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="M16" s="7">
         <v>766</v>
@@ -7692,13 +7692,13 @@
         <v>453719</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>533</v>
+        <v>550</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7713,13 +7713,13 @@
         <v>918</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="H17" s="7">
         <v>5</v>
@@ -7728,13 +7728,13 @@
         <v>1623</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>562</v>
+        <v>494</v>
       </c>
       <c r="M17" s="7">
         <v>8</v>
@@ -7743,13 +7743,13 @@
         <v>2541</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>541</v>
+        <v>558</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7817,13 +7817,13 @@
         <v>270796</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="H19" s="7">
         <v>451</v>
@@ -7832,13 +7832,13 @@
         <v>270092</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="M19" s="7">
         <v>810</v>
@@ -7847,13 +7847,13 @@
         <v>540887</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7868,13 +7868,13 @@
         <v>6427</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="H20" s="7">
         <v>9</v>
@@ -7883,13 +7883,13 @@
         <v>5530</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="M20" s="7">
         <v>21</v>
@@ -7898,13 +7898,13 @@
         <v>11958</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7972,13 +7972,13 @@
         <v>608792</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="H22" s="7">
         <v>915</v>
@@ -7987,13 +7987,13 @@
         <v>775981</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="M22" s="7">
         <v>1494</v>
@@ -8002,13 +8002,13 @@
         <v>1384774</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8023,13 +8023,13 @@
         <v>18962</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="H23" s="7">
         <v>45</v>
@@ -8038,13 +8038,13 @@
         <v>28222</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="M23" s="7">
         <v>65</v>
@@ -8053,13 +8053,13 @@
         <v>47183</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8115,7 +8115,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -8127,13 +8127,13 @@
         <v>803381</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="H25" s="7">
         <v>996</v>
@@ -8142,13 +8142,13 @@
         <v>808195</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>606</v>
+        <v>562</v>
       </c>
       <c r="M25" s="7">
         <v>1707</v>
@@ -8157,13 +8157,13 @@
         <v>1611576</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>537</v>
+        <v>604</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8178,13 +8178,13 @@
         <v>56047</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="H26" s="7">
         <v>66</v>
@@ -8193,13 +8193,13 @@
         <v>60239</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>613</v>
+        <v>572</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="M26" s="7">
         <v>117</v>
@@ -8208,13 +8208,13 @@
         <v>116286</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>546</v>
+        <v>611</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8282,13 +8282,13 @@
         <v>3275329</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="H28" s="7">
         <v>5188</v>
@@ -8297,28 +8297,28 @@
         <v>3681210</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>537</v>
+        <v>617</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>589</v>
+        <v>618</v>
       </c>
       <c r="M28" s="7">
         <v>8451</v>
       </c>
       <c r="N28" s="7">
-        <v>6956538</v>
+        <v>6956539</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>619</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>620</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>621</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>622</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8333,13 +8333,13 @@
         <v>109899</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>622</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>624</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>625</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>626</v>
       </c>
       <c r="H29" s="7">
         <v>179</v>
@@ -8348,13 +8348,13 @@
         <v>154371</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>625</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>626</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>627</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>598</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>546</v>
       </c>
       <c r="M29" s="7">
         <v>292</v>
@@ -8411,7 +8411,7 @@
         <v>8743</v>
       </c>
       <c r="N30" s="7">
-        <v>7220808</v>
+        <v>7220809</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -8425,7 +8425,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P2A_enfcro_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P2A_enfcro_R-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B10CB9BF-7D82-4146-88BF-97250A064959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B7D35FE-1A26-4F06-BBE9-36D540505D54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{850193D9-DFED-4B7E-99B5-FF51E27F4E94}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{A784B61B-4A83-4B1B-92EE-ADA3DFB55061}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="631">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="628">
   <si>
     <t>Hogares según si tienen personas con enfermedades crónicas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -74,1864 +74,1855 @@
     <t>Sí</t>
   </si>
   <si>
-    <t>42,42%</t>
-  </si>
-  <si>
-    <t>36,91%</t>
-  </si>
-  <si>
-    <t>48,81%</t>
-  </si>
-  <si>
-    <t>50,67%</t>
-  </si>
-  <si>
-    <t>44,35%</t>
-  </si>
-  <si>
-    <t>56,86%</t>
-  </si>
-  <si>
-    <t>46,45%</t>
-  </si>
-  <si>
-    <t>41,95%</t>
+    <t>41,85%</t>
+  </si>
+  <si>
+    <t>36,27%</t>
+  </si>
+  <si>
+    <t>48,05%</t>
+  </si>
+  <si>
+    <t>49,8%</t>
+  </si>
+  <si>
+    <t>43,53%</t>
+  </si>
+  <si>
+    <t>56,06%</t>
+  </si>
+  <si>
+    <t>45,74%</t>
+  </si>
+  <si>
+    <t>41,34%</t>
+  </si>
+  <si>
+    <t>49,94%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>58,15%</t>
+  </si>
+  <si>
+    <t>51,95%</t>
+  </si>
+  <si>
+    <t>63,73%</t>
+  </si>
+  <si>
+    <t>50,2%</t>
+  </si>
+  <si>
+    <t>43,94%</t>
+  </si>
+  <si>
+    <t>56,47%</t>
+  </si>
+  <si>
+    <t>54,26%</t>
+  </si>
+  <si>
+    <t>50,06%</t>
+  </si>
+  <si>
+    <t>58,66%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>40,35%</t>
+  </si>
+  <si>
+    <t>36,02%</t>
+  </si>
+  <si>
+    <t>44,89%</t>
+  </si>
+  <si>
+    <t>60,08%</t>
+  </si>
+  <si>
+    <t>55,36%</t>
+  </si>
+  <si>
+    <t>64,31%</t>
+  </si>
+  <si>
+    <t>50,32%</t>
+  </si>
+  <si>
+    <t>47,15%</t>
+  </si>
+  <si>
+    <t>53,63%</t>
+  </si>
+  <si>
+    <t>59,65%</t>
+  </si>
+  <si>
+    <t>55,11%</t>
+  </si>
+  <si>
+    <t>63,98%</t>
+  </si>
+  <si>
+    <t>39,92%</t>
+  </si>
+  <si>
+    <t>35,69%</t>
+  </si>
+  <si>
+    <t>44,64%</t>
+  </si>
+  <si>
+    <t>49,68%</t>
+  </si>
+  <si>
+    <t>46,37%</t>
+  </si>
+  <si>
+    <t>52,85%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>43,72%</t>
+  </si>
+  <si>
+    <t>37,64%</t>
+  </si>
+  <si>
+    <t>49,31%</t>
+  </si>
+  <si>
+    <t>67,49%</t>
+  </si>
+  <si>
+    <t>62,24%</t>
+  </si>
+  <si>
+    <t>72,6%</t>
+  </si>
+  <si>
+    <t>55,91%</t>
+  </si>
+  <si>
+    <t>51,87%</t>
+  </si>
+  <si>
+    <t>59,55%</t>
+  </si>
+  <si>
+    <t>56,28%</t>
+  </si>
+  <si>
+    <t>50,69%</t>
+  </si>
+  <si>
+    <t>62,36%</t>
+  </si>
+  <si>
+    <t>32,51%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>37,76%</t>
+  </si>
+  <si>
+    <t>44,09%</t>
+  </si>
+  <si>
+    <t>40,45%</t>
+  </si>
+  <si>
+    <t>48,13%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>50,41%</t>
+  </si>
+  <si>
+    <t>45,17%</t>
+  </si>
+  <si>
+    <t>55,46%</t>
+  </si>
+  <si>
+    <t>68,82%</t>
+  </si>
+  <si>
+    <t>64,06%</t>
+  </si>
+  <si>
+    <t>73,13%</t>
+  </si>
+  <si>
+    <t>59,78%</t>
+  </si>
+  <si>
+    <t>56,22%</t>
+  </si>
+  <si>
+    <t>63,37%</t>
+  </si>
+  <si>
+    <t>49,59%</t>
+  </si>
+  <si>
+    <t>44,54%</t>
+  </si>
+  <si>
+    <t>54,83%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>35,94%</t>
+  </si>
+  <si>
+    <t>40,22%</t>
+  </si>
+  <si>
+    <t>36,63%</t>
+  </si>
+  <si>
+    <t>43,78%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>43,61%</t>
+  </si>
+  <si>
+    <t>37,06%</t>
+  </si>
+  <si>
+    <t>51,16%</t>
+  </si>
+  <si>
+    <t>57,35%</t>
+  </si>
+  <si>
+    <t>50,57%</t>
+  </si>
+  <si>
+    <t>64,25%</t>
   </si>
   <si>
     <t>50,55%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>57,58%</t>
-  </si>
-  <si>
-    <t>51,19%</t>
-  </si>
-  <si>
-    <t>63,09%</t>
-  </si>
-  <si>
-    <t>49,33%</t>
-  </si>
-  <si>
-    <t>43,14%</t>
-  </si>
-  <si>
-    <t>55,65%</t>
-  </si>
-  <si>
-    <t>53,55%</t>
+    <t>45,08%</t>
+  </si>
+  <si>
+    <t>55,43%</t>
+  </si>
+  <si>
+    <t>56,39%</t>
+  </si>
+  <si>
+    <t>48,84%</t>
+  </si>
+  <si>
+    <t>62,94%</t>
+  </si>
+  <si>
+    <t>42,65%</t>
+  </si>
+  <si>
+    <t>35,75%</t>
+  </si>
+  <si>
+    <t>49,43%</t>
   </si>
   <si>
     <t>49,45%</t>
   </si>
   <si>
-    <t>58,05%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>44,87%</t>
+    <t>44,57%</t>
+  </si>
+  <si>
+    <t>54,92%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>50,14%</t>
+  </si>
+  <si>
+    <t>44,12%</t>
+  </si>
+  <si>
+    <t>55,86%</t>
+  </si>
+  <si>
+    <t>63,83%</t>
+  </si>
+  <si>
+    <t>57,75%</t>
+  </si>
+  <si>
+    <t>69,09%</t>
+  </si>
+  <si>
+    <t>57,07%</t>
+  </si>
+  <si>
+    <t>52,76%</t>
+  </si>
+  <si>
+    <t>61,26%</t>
+  </si>
+  <si>
+    <t>49,86%</t>
+  </si>
+  <si>
+    <t>44,14%</t>
+  </si>
+  <si>
+    <t>55,88%</t>
+  </si>
+  <si>
+    <t>36,17%</t>
+  </si>
+  <si>
+    <t>30,91%</t>
+  </si>
+  <si>
+    <t>42,25%</t>
+  </si>
+  <si>
+    <t>42,93%</t>
+  </si>
+  <si>
+    <t>38,74%</t>
+  </si>
+  <si>
+    <t>47,24%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>41,11%</t>
+  </si>
+  <si>
+    <t>36,67%</t>
+  </si>
+  <si>
+    <t>44,88%</t>
+  </si>
+  <si>
+    <t>58,35%</t>
+  </si>
+  <si>
+    <t>54,4%</t>
+  </si>
+  <si>
+    <t>62,26%</t>
+  </si>
+  <si>
+    <t>49,89%</t>
+  </si>
+  <si>
+    <t>47,07%</t>
+  </si>
+  <si>
+    <t>52,73%</t>
+  </si>
+  <si>
+    <t>58,89%</t>
+  </si>
+  <si>
+    <t>55,12%</t>
+  </si>
+  <si>
+    <t>63,33%</t>
+  </si>
+  <si>
+    <t>41,65%</t>
+  </si>
+  <si>
+    <t>37,74%</t>
+  </si>
+  <si>
+    <t>45,6%</t>
+  </si>
+  <si>
+    <t>50,11%</t>
+  </si>
+  <si>
+    <t>47,27%</t>
+  </si>
+  <si>
+    <t>52,93%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>46,13%</t>
+  </si>
+  <si>
+    <t>42,38%</t>
+  </si>
+  <si>
+    <t>49,99%</t>
+  </si>
+  <si>
+    <t>58,33%</t>
+  </si>
+  <si>
+    <t>54,58%</t>
+  </si>
+  <si>
+    <t>61,8%</t>
+  </si>
+  <si>
+    <t>52,39%</t>
+  </si>
+  <si>
+    <t>54,89%</t>
+  </si>
+  <si>
+    <t>53,87%</t>
+  </si>
+  <si>
+    <t>50,01%</t>
+  </si>
+  <si>
+    <t>57,62%</t>
+  </si>
+  <si>
+    <t>41,67%</t>
+  </si>
+  <si>
+    <t>38,2%</t>
+  </si>
+  <si>
+    <t>45,42%</t>
+  </si>
+  <si>
+    <t>47,61%</t>
+  </si>
+  <si>
+    <t>45,11%</t>
+  </si>
+  <si>
+    <t>44,37%</t>
+  </si>
+  <si>
+    <t>42,75%</t>
+  </si>
+  <si>
+    <t>46,14%</t>
+  </si>
+  <si>
+    <t>60,39%</t>
+  </si>
+  <si>
+    <t>58,68%</t>
+  </si>
+  <si>
+    <t>61,95%</t>
+  </si>
+  <si>
+    <t>52,5%</t>
+  </si>
+  <si>
+    <t>51,31%</t>
+  </si>
+  <si>
+    <t>53,76%</t>
+  </si>
+  <si>
+    <t>55,63%</t>
+  </si>
+  <si>
+    <t>53,86%</t>
+  </si>
+  <si>
+    <t>57,25%</t>
+  </si>
+  <si>
+    <t>39,61%</t>
+  </si>
+  <si>
+    <t>38,05%</t>
+  </si>
+  <si>
+    <t>41,32%</t>
+  </si>
+  <si>
+    <t>47,5%</t>
+  </si>
+  <si>
+    <t>46,24%</t>
+  </si>
+  <si>
+    <t>48,69%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen personas con enfermedades crónicas en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>59,92%</t>
+  </si>
+  <si>
+    <t>54,11%</t>
+  </si>
+  <si>
+    <t>65,65%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>71,81%</t>
+  </si>
+  <si>
+    <t>82,11%</t>
+  </si>
+  <si>
+    <t>68,23%</t>
+  </si>
+  <si>
+    <t>64,35%</t>
+  </si>
+  <si>
+    <t>72,06%</t>
+  </si>
+  <si>
+    <t>40,08%</t>
+  </si>
+  <si>
+    <t>34,35%</t>
+  </si>
+  <si>
+    <t>45,89%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>51,0%</t>
+  </si>
+  <si>
+    <t>46,77%</t>
+  </si>
+  <si>
+    <t>55,45%</t>
+  </si>
+  <si>
+    <t>68,31%</t>
+  </si>
+  <si>
+    <t>64,09%</t>
+  </si>
+  <si>
+    <t>72,3%</t>
+  </si>
+  <si>
+    <t>59,81%</t>
+  </si>
+  <si>
+    <t>56,65%</t>
+  </si>
+  <si>
+    <t>63,21%</t>
+  </si>
+  <si>
+    <t>49,0%</t>
+  </si>
+  <si>
+    <t>44,55%</t>
+  </si>
+  <si>
+    <t>53,23%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>35,91%</t>
+  </si>
+  <si>
+    <t>40,19%</t>
+  </si>
+  <si>
+    <t>36,79%</t>
+  </si>
+  <si>
+    <t>43,35%</t>
+  </si>
+  <si>
+    <t>58,83%</t>
+  </si>
+  <si>
+    <t>53,58%</t>
+  </si>
+  <si>
+    <t>64,66%</t>
+  </si>
+  <si>
+    <t>67,44%</t>
+  </si>
+  <si>
+    <t>61,47%</t>
+  </si>
+  <si>
+    <t>72,05%</t>
+  </si>
+  <si>
+    <t>63,25%</t>
+  </si>
+  <si>
+    <t>59,49%</t>
+  </si>
+  <si>
+    <t>67,01%</t>
+  </si>
+  <si>
+    <t>41,17%</t>
+  </si>
+  <si>
+    <t>35,34%</t>
+  </si>
+  <si>
+    <t>46,42%</t>
+  </si>
+  <si>
+    <t>32,56%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>38,53%</t>
+  </si>
+  <si>
+    <t>36,75%</t>
+  </si>
+  <si>
+    <t>32,99%</t>
+  </si>
+  <si>
+    <t>40,51%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>51,52%</t>
+  </si>
+  <si>
+    <t>61,92%</t>
+  </si>
+  <si>
+    <t>69,94%</t>
+  </si>
+  <si>
+    <t>65,18%</t>
+  </si>
+  <si>
+    <t>74,33%</t>
+  </si>
+  <si>
+    <t>63,56%</t>
+  </si>
+  <si>
+    <t>66,93%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>48,48%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>34,82%</t>
+  </si>
+  <si>
+    <t>36,44%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>53,52%</t>
+  </si>
+  <si>
+    <t>46,31%</t>
+  </si>
+  <si>
+    <t>60,45%</t>
+  </si>
+  <si>
+    <t>79,57%</t>
+  </si>
+  <si>
+    <t>73,39%</t>
+  </si>
+  <si>
+    <t>84,57%</t>
+  </si>
+  <si>
+    <t>66,76%</t>
+  </si>
+  <si>
+    <t>62,05%</t>
+  </si>
+  <si>
+    <t>71,37%</t>
+  </si>
+  <si>
+    <t>46,48%</t>
+  </si>
+  <si>
+    <t>39,55%</t>
+  </si>
+  <si>
+    <t>53,69%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>37,95%</t>
+  </si>
+  <si>
+    <t>62,61%</t>
+  </si>
+  <si>
+    <t>69,36%</t>
+  </si>
+  <si>
+    <t>77,17%</t>
+  </si>
+  <si>
+    <t>71,53%</t>
+  </si>
+  <si>
+    <t>81,89%</t>
+  </si>
+  <si>
+    <t>69,97%</t>
+  </si>
+  <si>
+    <t>65,34%</t>
+  </si>
+  <si>
+    <t>73,61%</t>
+  </si>
+  <si>
+    <t>37,39%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>53,26%</t>
+  </si>
+  <si>
+    <t>61,58%</t>
+  </si>
+  <si>
+    <t>67,43%</t>
+  </si>
+  <si>
+    <t>64,13%</t>
+  </si>
+  <si>
+    <t>71,54%</t>
+  </si>
+  <si>
+    <t>62,64%</t>
+  </si>
+  <si>
+    <t>59,89%</t>
+  </si>
+  <si>
+    <t>64,99%</t>
+  </si>
+  <si>
+    <t>38,42%</t>
+  </si>
+  <si>
+    <t>46,74%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>35,87%</t>
+  </si>
+  <si>
+    <t>37,36%</t>
+  </si>
+  <si>
+    <t>35,01%</t>
+  </si>
+  <si>
+    <t>40,11%</t>
+  </si>
+  <si>
+    <t>43,77%</t>
+  </si>
+  <si>
+    <t>39,9%</t>
+  </si>
+  <si>
+    <t>47,4%</t>
+  </si>
+  <si>
+    <t>53,2%</t>
+  </si>
+  <si>
+    <t>60,23%</t>
+  </si>
+  <si>
+    <t>50,3%</t>
+  </si>
+  <si>
+    <t>47,84%</t>
+  </si>
+  <si>
+    <t>52,71%</t>
+  </si>
+  <si>
+    <t>56,23%</t>
+  </si>
+  <si>
+    <t>52,6%</t>
+  </si>
+  <si>
+    <t>60,1%</t>
+  </si>
+  <si>
+    <t>39,77%</t>
+  </si>
+  <si>
+    <t>46,8%</t>
+  </si>
+  <si>
+    <t>49,7%</t>
+  </si>
+  <si>
+    <t>47,29%</t>
+  </si>
+  <si>
+    <t>52,16%</t>
+  </si>
+  <si>
+    <t>53,88%</t>
+  </si>
+  <si>
+    <t>51,99%</t>
+  </si>
+  <si>
+    <t>55,77%</t>
+  </si>
+  <si>
+    <t>67,56%</t>
+  </si>
+  <si>
+    <t>65,86%</t>
+  </si>
+  <si>
+    <t>69,11%</t>
+  </si>
+  <si>
+    <t>60,85%</t>
+  </si>
+  <si>
+    <t>59,62%</t>
+  </si>
+  <si>
+    <t>46,12%</t>
+  </si>
+  <si>
+    <t>44,23%</t>
+  </si>
+  <si>
+    <t>48,01%</t>
+  </si>
+  <si>
+    <t>32,44%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>34,14%</t>
+  </si>
+  <si>
+    <t>39,15%</t>
+  </si>
+  <si>
+    <t>40,38%</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen personas con enfermedades crónicas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>53,15%</t>
+  </si>
+  <si>
+    <t>46,29%</t>
+  </si>
+  <si>
+    <t>58,91%</t>
+  </si>
+  <si>
+    <t>64,93%</t>
+  </si>
+  <si>
+    <t>59,56%</t>
+  </si>
+  <si>
+    <t>70,72%</t>
+  </si>
+  <si>
+    <t>58,99%</t>
+  </si>
+  <si>
+    <t>54,7%</t>
+  </si>
+  <si>
+    <t>63,18%</t>
+  </si>
+  <si>
+    <t>46,85%</t>
+  </si>
+  <si>
+    <t>41,09%</t>
+  </si>
+  <si>
+    <t>53,71%</t>
+  </si>
+  <si>
+    <t>35,07%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>40,44%</t>
+  </si>
+  <si>
+    <t>41,01%</t>
+  </si>
+  <si>
+    <t>36,82%</t>
+  </si>
+  <si>
+    <t>45,3%</t>
+  </si>
+  <si>
+    <t>60,43%</t>
+  </si>
+  <si>
+    <t>69,93%</t>
+  </si>
+  <si>
+    <t>65,67%</t>
+  </si>
+  <si>
+    <t>73,82%</t>
+  </si>
+  <si>
+    <t>63,13%</t>
+  </si>
+  <si>
+    <t>66,24%</t>
+  </si>
+  <si>
+    <t>39,57%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>36,87%</t>
+  </si>
+  <si>
+    <t>33,76%</t>
+  </si>
+  <si>
+    <t>51,28%</t>
+  </si>
+  <si>
+    <t>45,94%</t>
+  </si>
+  <si>
+    <t>56,57%</t>
+  </si>
+  <si>
+    <t>60,49%</t>
+  </si>
+  <si>
+    <t>55,56%</t>
+  </si>
+  <si>
+    <t>66,36%</t>
+  </si>
+  <si>
+    <t>56,01%</t>
+  </si>
+  <si>
+    <t>52,15%</t>
+  </si>
+  <si>
+    <t>59,9%</t>
+  </si>
+  <si>
+    <t>48,72%</t>
+  </si>
+  <si>
+    <t>43,43%</t>
+  </si>
+  <si>
+    <t>54,06%</t>
+  </si>
+  <si>
+    <t>39,51%</t>
+  </si>
+  <si>
+    <t>33,64%</t>
+  </si>
+  <si>
+    <t>44,44%</t>
+  </si>
+  <si>
+    <t>43,99%</t>
+  </si>
+  <si>
+    <t>40,1%</t>
+  </si>
+  <si>
+    <t>47,85%</t>
+  </si>
+  <si>
+    <t>55,68%</t>
+  </si>
+  <si>
+    <t>60,94%</t>
+  </si>
+  <si>
+    <t>69,83%</t>
+  </si>
+  <si>
+    <t>65,04%</t>
+  </si>
+  <si>
+    <t>74,43%</t>
+  </si>
+  <si>
+    <t>62,92%</t>
+  </si>
+  <si>
+    <t>59,28%</t>
+  </si>
+  <si>
+    <t>66,45%</t>
+  </si>
+  <si>
+    <t>44,32%</t>
+  </si>
+  <si>
+    <t>39,06%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>34,96%</t>
+  </si>
+  <si>
+    <t>37,08%</t>
+  </si>
+  <si>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>40,72%</t>
+  </si>
+  <si>
+    <t>51,25%</t>
+  </si>
+  <si>
+    <t>44,45%</t>
+  </si>
+  <si>
+    <t>58,53%</t>
+  </si>
+  <si>
+    <t>53,89%</t>
+  </si>
+  <si>
+    <t>66,53%</t>
+  </si>
+  <si>
+    <t>55,9%</t>
+  </si>
+  <si>
+    <t>50,6%</t>
+  </si>
+  <si>
+    <t>60,11%</t>
+  </si>
+  <si>
+    <t>48,75%</t>
+  </si>
+  <si>
+    <t>41,47%</t>
+  </si>
+  <si>
+    <t>55,55%</t>
+  </si>
+  <si>
+    <t>33,47%</t>
+  </si>
+  <si>
+    <t>46,11%</t>
+  </si>
+  <si>
+    <t>44,1%</t>
+  </si>
+  <si>
+    <t>39,89%</t>
+  </si>
+  <si>
+    <t>49,4%</t>
+  </si>
+  <si>
+    <t>44,68%</t>
+  </si>
+  <si>
+    <t>38,48%</t>
+  </si>
+  <si>
+    <t>50,92%</t>
+  </si>
+  <si>
+    <t>56,5%</t>
+  </si>
+  <si>
+    <t>50,13%</t>
+  </si>
+  <si>
+    <t>61,81%</t>
+  </si>
+  <si>
+    <t>50,7%</t>
+  </si>
+  <si>
+    <t>46,39%</t>
+  </si>
+  <si>
+    <t>55,14%</t>
+  </si>
+  <si>
+    <t>55,32%</t>
+  </si>
+  <si>
+    <t>49,08%</t>
+  </si>
+  <si>
+    <t>61,52%</t>
+  </si>
+  <si>
+    <t>43,5%</t>
+  </si>
+  <si>
+    <t>38,19%</t>
+  </si>
+  <si>
+    <t>49,87%</t>
+  </si>
+  <si>
+    <t>49,3%</t>
+  </si>
+  <si>
+    <t>44,86%</t>
+  </si>
+  <si>
+    <t>53,61%</t>
+  </si>
+  <si>
+    <t>42,49%</t>
+  </si>
+  <si>
+    <t>38,44%</t>
+  </si>
+  <si>
+    <t>46,56%</t>
+  </si>
+  <si>
+    <t>54,04%</t>
+  </si>
+  <si>
+    <t>49,97%</t>
+  </si>
+  <si>
+    <t>57,74%</t>
+  </si>
+  <si>
+    <t>48,42%</t>
+  </si>
+  <si>
+    <t>45,53%</t>
+  </si>
+  <si>
+    <t>51,06%</t>
+  </si>
+  <si>
+    <t>57,51%</t>
+  </si>
+  <si>
+    <t>53,44%</t>
+  </si>
+  <si>
+    <t>61,56%</t>
+  </si>
+  <si>
+    <t>45,96%</t>
+  </si>
+  <si>
+    <t>42,26%</t>
+  </si>
+  <si>
+    <t>50,03%</t>
+  </si>
+  <si>
+    <t>51,58%</t>
+  </si>
+  <si>
+    <t>48,94%</t>
+  </si>
+  <si>
+    <t>54,47%</t>
+  </si>
+  <si>
+    <t>48,14%</t>
+  </si>
+  <si>
+    <t>44,43%</t>
+  </si>
+  <si>
+    <t>52,01%</t>
+  </si>
+  <si>
+    <t>58,81%</t>
+  </si>
+  <si>
+    <t>55,18%</t>
+  </si>
+  <si>
+    <t>62,42%</t>
+  </si>
+  <si>
+    <t>51,12%</t>
+  </si>
+  <si>
+    <t>55,92%</t>
+  </si>
+  <si>
+    <t>51,86%</t>
+  </si>
+  <si>
+    <t>47,99%</t>
+  </si>
+  <si>
+    <t>55,57%</t>
+  </si>
+  <si>
+    <t>41,19%</t>
+  </si>
+  <si>
+    <t>37,58%</t>
+  </si>
+  <si>
+    <t>44,82%</t>
+  </si>
+  <si>
+    <t>44,08%</t>
+  </si>
+  <si>
+    <t>48,88%</t>
+  </si>
+  <si>
+    <t>51,38%</t>
+  </si>
+  <si>
+    <t>61,3%</t>
+  </si>
+  <si>
+    <t>59,57%</t>
+  </si>
+  <si>
+    <t>62,9%</t>
+  </si>
+  <si>
+    <t>55,62%</t>
+  </si>
+  <si>
+    <t>54,43%</t>
+  </si>
+  <si>
+    <t>56,78%</t>
+  </si>
+  <si>
+    <t>48,62%</t>
+  </si>
+  <si>
+    <t>38,7%</t>
+  </si>
+  <si>
+    <t>37,1%</t>
+  </si>
+  <si>
+    <t>40,43%</t>
+  </si>
+  <si>
+    <t>44,38%</t>
+  </si>
+  <si>
+    <t>43,22%</t>
+  </si>
+  <si>
+    <t>45,57%</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen personas con enfermedades crónicas en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>59,31%</t>
+  </si>
+  <si>
+    <t>52,95%</t>
+  </si>
+  <si>
+    <t>65,71%</t>
+  </si>
+  <si>
+    <t>68,03%</t>
+  </si>
+  <si>
+    <t>62,77%</t>
+  </si>
+  <si>
+    <t>72,31%</t>
+  </si>
+  <si>
+    <t>63,51%</t>
+  </si>
+  <si>
+    <t>59,35%</t>
+  </si>
+  <si>
+    <t>67,58%</t>
+  </si>
+  <si>
+    <t>40,69%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
+  </si>
+  <si>
+    <t>47,05%</t>
+  </si>
+  <si>
+    <t>31,97%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>37,23%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>32,42%</t>
+  </si>
+  <si>
+    <t>40,65%</t>
+  </si>
+  <si>
+    <t>32,87%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>38,37%</t>
+  </si>
+  <si>
+    <t>34,1%</t>
+  </si>
+  <si>
+    <t>41,45%</t>
+  </si>
+  <si>
+    <t>35,4%</t>
+  </si>
+  <si>
+    <t>32,36%</t>
+  </si>
+  <si>
+    <t>67,13%</t>
+  </si>
+  <si>
+    <t>61,63%</t>
+  </si>
+  <si>
+    <t>71,74%</t>
+  </si>
+  <si>
+    <t>58,55%</t>
+  </si>
+  <si>
+    <t>65,9%</t>
+  </si>
+  <si>
+    <t>64,6%</t>
+  </si>
+  <si>
+    <t>67,64%</t>
+  </si>
+  <si>
+    <t>35,39%</t>
+  </si>
+  <si>
+    <t>45,98%</t>
   </si>
   <si>
     <t>40,56%</t>
   </si>
   <si>
-    <t>49,57%</t>
-  </si>
-  <si>
-    <t>61,9%</t>
-  </si>
-  <si>
-    <t>57,18%</t>
-  </si>
-  <si>
-    <t>66,12%</t>
-  </si>
-  <si>
-    <t>53,48%</t>
-  </si>
-  <si>
-    <t>56,85%</t>
-  </si>
-  <si>
-    <t>55,13%</t>
-  </si>
-  <si>
-    <t>50,43%</t>
+    <t>49,91%</t>
+  </si>
+  <si>
+    <t>43,01%</t>
+  </si>
+  <si>
+    <t>39,81%</t>
+  </si>
+  <si>
+    <t>46,84%</t>
+  </si>
+  <si>
+    <t>54,02%</t>
+  </si>
+  <si>
+    <t>64,61%</t>
+  </si>
+  <si>
+    <t>50,09%</t>
   </si>
   <si>
     <t>59,44%</t>
   </si>
   <si>
-    <t>38,1%</t>
-  </si>
-  <si>
-    <t>33,88%</t>
-  </si>
-  <si>
-    <t>42,82%</t>
-  </si>
-  <si>
-    <t>46,52%</t>
-  </si>
-  <si>
-    <t>43,15%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>44,67%</t>
-  </si>
-  <si>
-    <t>38,51%</t>
-  </si>
-  <si>
-    <t>50,36%</t>
-  </si>
-  <si>
-    <t>67,79%</t>
-  </si>
-  <si>
-    <t>62,53%</t>
-  </si>
-  <si>
-    <t>72,8%</t>
-  </si>
-  <si>
-    <t>56,53%</t>
-  </si>
-  <si>
-    <t>52,47%</t>
-  </si>
-  <si>
-    <t>60,29%</t>
-  </si>
-  <si>
-    <t>55,33%</t>
-  </si>
-  <si>
-    <t>49,64%</t>
-  </si>
-  <si>
-    <t>61,49%</t>
-  </si>
-  <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>37,47%</t>
-  </si>
-  <si>
-    <t>43,47%</t>
-  </si>
-  <si>
-    <t>39,71%</t>
-  </si>
-  <si>
-    <t>47,53%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>50,87%</t>
-  </si>
-  <si>
-    <t>45,96%</t>
-  </si>
-  <si>
-    <t>55,92%</t>
-  </si>
-  <si>
-    <t>68,45%</t>
-  </si>
-  <si>
-    <t>63,68%</t>
-  </si>
-  <si>
-    <t>72,66%</t>
-  </si>
-  <si>
-    <t>59,81%</t>
-  </si>
-  <si>
-    <t>56,19%</t>
-  </si>
-  <si>
-    <t>63,45%</t>
-  </si>
-  <si>
-    <t>49,13%</t>
-  </si>
-  <si>
-    <t>44,08%</t>
-  </si>
-  <si>
-    <t>54,04%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
-  </si>
-  <si>
-    <t>36,32%</t>
-  </si>
-  <si>
-    <t>40,19%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>43,81%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>48,03%</t>
-  </si>
-  <si>
-    <t>41,63%</t>
-  </si>
-  <si>
-    <t>55,45%</t>
-  </si>
-  <si>
-    <t>62,17%</t>
-  </si>
-  <si>
-    <t>55,57%</t>
-  </si>
-  <si>
-    <t>68,74%</t>
-  </si>
-  <si>
-    <t>55,17%</t>
-  </si>
-  <si>
-    <t>49,96%</t>
-  </si>
-  <si>
-    <t>59,88%</t>
-  </si>
-  <si>
-    <t>51,97%</t>
-  </si>
-  <si>
-    <t>44,55%</t>
-  </si>
-  <si>
-    <t>58,37%</t>
-  </si>
-  <si>
-    <t>37,83%</t>
-  </si>
-  <si>
-    <t>31,26%</t>
-  </si>
-  <si>
-    <t>44,43%</t>
-  </si>
-  <si>
-    <t>44,83%</t>
-  </si>
-  <si>
-    <t>40,12%</t>
-  </si>
-  <si>
-    <t>50,04%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>50,14%</t>
-  </si>
-  <si>
-    <t>44,12%</t>
-  </si>
-  <si>
-    <t>55,86%</t>
-  </si>
-  <si>
-    <t>64,17%</t>
-  </si>
-  <si>
-    <t>58,03%</t>
-  </si>
-  <si>
-    <t>69,47%</t>
-  </si>
-  <si>
-    <t>57,25%</t>
-  </si>
-  <si>
-    <t>52,75%</t>
-  </si>
-  <si>
-    <t>61,35%</t>
-  </si>
-  <si>
-    <t>49,86%</t>
-  </si>
-  <si>
-    <t>44,14%</t>
-  </si>
-  <si>
-    <t>55,88%</t>
-  </si>
-  <si>
-    <t>35,83%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>41,97%</t>
-  </si>
-  <si>
-    <t>42,75%</t>
-  </si>
-  <si>
-    <t>38,65%</t>
-  </si>
-  <si>
-    <t>47,25%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>44,77%</t>
-  </si>
-  <si>
-    <t>40,23%</t>
-  </si>
-  <si>
-    <t>48,49%</t>
-  </si>
-  <si>
-    <t>60,04%</t>
-  </si>
-  <si>
-    <t>56,03%</t>
-  </si>
-  <si>
-    <t>63,88%</t>
-  </si>
-  <si>
-    <t>52,54%</t>
-  </si>
-  <si>
-    <t>55,43%</t>
-  </si>
-  <si>
-    <t>55,23%</t>
-  </si>
-  <si>
-    <t>51,51%</t>
-  </si>
-  <si>
-    <t>59,77%</t>
-  </si>
-  <si>
-    <t>39,96%</t>
-  </si>
-  <si>
-    <t>36,12%</t>
-  </si>
-  <si>
-    <t>43,97%</t>
-  </si>
-  <si>
-    <t>47,46%</t>
-  </si>
-  <si>
-    <t>44,57%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>49,75%</t>
-  </si>
-  <si>
-    <t>46,03%</t>
-  </si>
-  <si>
-    <t>53,94%</t>
-  </si>
-  <si>
-    <t>61,15%</t>
-  </si>
-  <si>
-    <t>57,21%</t>
-  </si>
-  <si>
-    <t>64,46%</t>
-  </si>
-  <si>
-    <t>55,6%</t>
-  </si>
-  <si>
-    <t>52,81%</t>
-  </si>
-  <si>
-    <t>57,95%</t>
-  </si>
-  <si>
-    <t>50,25%</t>
-  </si>
-  <si>
-    <t>46,06%</t>
-  </si>
-  <si>
-    <t>53,97%</t>
-  </si>
-  <si>
-    <t>38,85%</t>
-  </si>
-  <si>
-    <t>35,54%</t>
-  </si>
-  <si>
-    <t>42,79%</t>
-  </si>
-  <si>
-    <t>44,4%</t>
-  </si>
-  <si>
-    <t>42,05%</t>
-  </si>
-  <si>
-    <t>47,19%</t>
-  </si>
-  <si>
-    <t>47,02%</t>
-  </si>
-  <si>
-    <t>45,35%</t>
-  </si>
-  <si>
-    <t>48,82%</t>
+    <t>56,99%</t>
+  </si>
+  <si>
+    <t>53,16%</t>
+  </si>
+  <si>
+    <t>60,19%</t>
+  </si>
+  <si>
+    <t>40,94%</t>
+  </si>
+  <si>
+    <t>33,79%</t>
+  </si>
+  <si>
+    <t>46,76%</t>
+  </si>
+  <si>
+    <t>38,64%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>48,59%</t>
+  </si>
+  <si>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>45,72%</t>
+  </si>
+  <si>
+    <t>59,06%</t>
+  </si>
+  <si>
+    <t>53,24%</t>
+  </si>
+  <si>
+    <t>66,21%</t>
+  </si>
+  <si>
+    <t>61,36%</t>
+  </si>
+  <si>
+    <t>51,41%</t>
+  </si>
+  <si>
+    <t>78,06%</t>
+  </si>
+  <si>
+    <t>54,28%</t>
+  </si>
+  <si>
+    <t>70,93%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
+  </si>
+  <si>
+    <t>85,68%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>90,42%</t>
+  </si>
+  <si>
+    <t>87,1%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>87,6%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>49,46%</t>
+  </si>
+  <si>
+    <t>44,29%</t>
+  </si>
+  <si>
+    <t>54,81%</t>
+  </si>
+  <si>
+    <t>50,8%</t>
+  </si>
+  <si>
+    <t>45,93%</t>
+  </si>
+  <si>
+    <t>56,1%</t>
+  </si>
+  <si>
+    <t>46,33%</t>
+  </si>
+  <si>
+    <t>50,54%</t>
+  </si>
+  <si>
+    <t>45,19%</t>
+  </si>
+  <si>
+    <t>55,71%</t>
+  </si>
+  <si>
+    <t>49,2%</t>
+  </si>
+  <si>
+    <t>43,9%</t>
+  </si>
+  <si>
+    <t>54,07%</t>
+  </si>
+  <si>
+    <t>53,67%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>44,56%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>72,29%</t>
+  </si>
+  <si>
+    <t>35,0%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>59,26%</t>
+  </si>
+  <si>
+    <t>78,0%</t>
+  </si>
+  <si>
+    <t>73,96%</t>
+  </si>
+  <si>
+    <t>81,51%</t>
+  </si>
+  <si>
+    <t>55,44%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>74,16%</t>
+  </si>
+  <si>
+    <t>65,0%</t>
+  </si>
+  <si>
+    <t>40,74%</t>
+  </si>
+  <si>
+    <t>76,14%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>41,41%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>44,53%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>36,69%</t>
+  </si>
+  <si>
+    <t>69,26%</t>
+  </si>
+  <si>
+    <t>89,7%</t>
+  </si>
+  <si>
+    <t>58,59%</t>
+  </si>
+  <si>
+    <t>55,47%</t>
+  </si>
+  <si>
+    <t>61,82%</t>
+  </si>
+  <si>
+    <t>69,54%</t>
+  </si>
+  <si>
+    <t>63,31%</t>
+  </si>
+  <si>
+    <t>81,14%</t>
+  </si>
+  <si>
+    <t>31,93%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>34,92%</t>
+  </si>
+  <si>
+    <t>42,15%</t>
+  </si>
+  <si>
+    <t>37,99%</t>
+  </si>
+  <si>
+    <t>52,23%</t>
+  </si>
+  <si>
+    <t>37,22%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>42,32%</t>
+  </si>
+  <si>
+    <t>68,07%</t>
+  </si>
+  <si>
+    <t>65,08%</t>
+  </si>
+  <si>
+    <t>75,7%</t>
+  </si>
+  <si>
+    <t>57,85%</t>
+  </si>
+  <si>
+    <t>47,77%</t>
   </si>
   <si>
     <t>62,01%</t>
   </si>
   <si>
-    <t>60,37%</t>
-  </si>
-  <si>
-    <t>63,58%</t>
-  </si>
-  <si>
-    <t>54,63%</t>
-  </si>
-  <si>
-    <t>53,39%</t>
-  </si>
-  <si>
-    <t>55,93%</t>
-  </si>
-  <si>
-    <t>52,98%</t>
-  </si>
-  <si>
-    <t>51,18%</t>
-  </si>
-  <si>
-    <t>54,65%</t>
-  </si>
-  <si>
-    <t>37,99%</t>
-  </si>
-  <si>
-    <t>36,42%</t>
-  </si>
-  <si>
-    <t>39,63%</t>
-  </si>
-  <si>
-    <t>45,37%</t>
-  </si>
-  <si>
-    <t>44,07%</t>
-  </si>
-  <si>
-    <t>46,61%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Hogares según si tienen personas con enfermedades crónicas en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>52,44%</t>
-  </si>
-  <si>
-    <t>47,75%</t>
-  </si>
-  <si>
-    <t>56,88%</t>
-  </si>
-  <si>
-    <t>69,87%</t>
-  </si>
-  <si>
-    <t>65,72%</t>
-  </si>
-  <si>
-    <t>73,92%</t>
-  </si>
-  <si>
-    <t>61,31%</t>
-  </si>
-  <si>
-    <t>58,08%</t>
-  </si>
-  <si>
-    <t>64,47%</t>
-  </si>
-  <si>
-    <t>47,56%</t>
-  </si>
-  <si>
-    <t>43,12%</t>
-  </si>
-  <si>
-    <t>52,25%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>34,28%</t>
-  </si>
-  <si>
-    <t>38,69%</t>
-  </si>
-  <si>
-    <t>35,53%</t>
-  </si>
-  <si>
-    <t>41,92%</t>
-  </si>
-  <si>
-    <t>59,14%</t>
-  </si>
-  <si>
-    <t>54,16%</t>
-  </si>
-  <si>
-    <t>64,92%</t>
-  </si>
-  <si>
-    <t>68,61%</t>
-  </si>
-  <si>
-    <t>62,71%</t>
-  </si>
-  <si>
-    <t>73,49%</t>
-  </si>
-  <si>
-    <t>64,0%</t>
-  </si>
-  <si>
-    <t>60,27%</t>
-  </si>
-  <si>
-    <t>67,77%</t>
-  </si>
-  <si>
-    <t>40,86%</t>
-  </si>
-  <si>
-    <t>35,08%</t>
-  </si>
-  <si>
-    <t>45,84%</t>
-  </si>
-  <si>
-    <t>31,39%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>37,29%</t>
-  </si>
-  <si>
-    <t>36,0%</t>
-  </si>
-  <si>
-    <t>32,23%</t>
-  </si>
-  <si>
-    <t>39,73%</t>
-  </si>
-  <si>
-    <t>59,58%</t>
-  </si>
-  <si>
-    <t>55,39%</t>
-  </si>
-  <si>
-    <t>63,38%</t>
-  </si>
-  <si>
-    <t>73,55%</t>
-  </si>
-  <si>
-    <t>69,97%</t>
-  </si>
-  <si>
-    <t>76,78%</t>
-  </si>
-  <si>
-    <t>66,6%</t>
-  </si>
-  <si>
-    <t>63,9%</t>
-  </si>
-  <si>
-    <t>69,13%</t>
-  </si>
-  <si>
-    <t>40,42%</t>
-  </si>
-  <si>
-    <t>36,62%</t>
-  </si>
-  <si>
-    <t>44,61%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>33,4%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>36,1%</t>
-  </si>
-  <si>
-    <t>55,38%</t>
-  </si>
-  <si>
-    <t>48,74%</t>
-  </si>
-  <si>
-    <t>62,3%</t>
-  </si>
-  <si>
-    <t>82,32%</t>
-  </si>
-  <si>
-    <t>76,67%</t>
-  </si>
-  <si>
-    <t>86,8%</t>
-  </si>
-  <si>
-    <t>69,06%</t>
-  </si>
-  <si>
-    <t>64,15%</t>
-  </si>
-  <si>
-    <t>73,38%</t>
-  </si>
-  <si>
-    <t>44,62%</t>
-  </si>
-  <si>
-    <t>37,7%</t>
-  </si>
-  <si>
-    <t>51,26%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>35,85%</t>
-  </si>
-  <si>
-    <t>62,61%</t>
-  </si>
-  <si>
-    <t>57,07%</t>
-  </si>
-  <si>
-    <t>69,36%</t>
-  </si>
-  <si>
-    <t>77,55%</t>
-  </si>
-  <si>
-    <t>71,99%</t>
-  </si>
-  <si>
-    <t>82,21%</t>
-  </si>
-  <si>
-    <t>70,16%</t>
-  </si>
-  <si>
-    <t>65,55%</t>
-  </si>
-  <si>
-    <t>73,83%</t>
-  </si>
-  <si>
-    <t>37,39%</t>
-  </si>
-  <si>
-    <t>30,64%</t>
-  </si>
-  <si>
-    <t>42,93%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>34,45%</t>
-  </si>
-  <si>
-    <t>57,92%</t>
-  </si>
-  <si>
-    <t>53,68%</t>
-  </si>
-  <si>
-    <t>61,86%</t>
-  </si>
-  <si>
-    <t>68,27%</t>
-  </si>
-  <si>
-    <t>64,9%</t>
-  </si>
-  <si>
-    <t>72,23%</t>
-  </si>
-  <si>
-    <t>63,22%</t>
-  </si>
-  <si>
-    <t>65,56%</t>
-  </si>
-  <si>
-    <t>42,08%</t>
-  </si>
-  <si>
-    <t>38,14%</t>
-  </si>
-  <si>
-    <t>46,32%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>35,1%</t>
-  </si>
-  <si>
-    <t>36,78%</t>
-  </si>
-  <si>
-    <t>34,44%</t>
-  </si>
-  <si>
-    <t>46,95%</t>
-  </si>
-  <si>
-    <t>43,21%</t>
-  </si>
-  <si>
-    <t>50,61%</t>
-  </si>
-  <si>
-    <t>58,16%</t>
-  </si>
-  <si>
-    <t>54,91%</t>
-  </si>
-  <si>
-    <t>61,87%</t>
-  </si>
-  <si>
-    <t>52,71%</t>
-  </si>
-  <si>
-    <t>50,06%</t>
-  </si>
-  <si>
-    <t>54,93%</t>
-  </si>
-  <si>
-    <t>53,05%</t>
-  </si>
-  <si>
-    <t>49,39%</t>
-  </si>
-  <si>
-    <t>56,79%</t>
-  </si>
-  <si>
-    <t>41,84%</t>
-  </si>
-  <si>
-    <t>38,13%</t>
-  </si>
-  <si>
-    <t>45,09%</t>
-  </si>
-  <si>
-    <t>47,29%</t>
-  </si>
-  <si>
-    <t>45,07%</t>
-  </si>
-  <si>
-    <t>49,94%</t>
-  </si>
-  <si>
-    <t>55,27%</t>
-  </si>
-  <si>
-    <t>53,46%</t>
-  </si>
-  <si>
-    <t>57,11%</t>
-  </si>
-  <si>
-    <t>68,8%</t>
-  </si>
-  <si>
-    <t>67,09%</t>
-  </si>
-  <si>
-    <t>70,32%</t>
-  </si>
-  <si>
-    <t>62,16%</t>
-  </si>
-  <si>
-    <t>60,89%</t>
-  </si>
-  <si>
-    <t>63,36%</t>
-  </si>
-  <si>
-    <t>44,73%</t>
-  </si>
-  <si>
-    <t>42,89%</t>
-  </si>
-  <si>
-    <t>46,54%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>32,91%</t>
-  </si>
-  <si>
-    <t>37,84%</t>
-  </si>
-  <si>
-    <t>36,64%</t>
-  </si>
-  <si>
-    <t>39,11%</t>
-  </si>
-  <si>
-    <t>Hogares según si tienen personas con enfermedades crónicas en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>55,37%</t>
-  </si>
-  <si>
-    <t>48,43%</t>
-  </si>
-  <si>
-    <t>60,95%</t>
-  </si>
-  <si>
-    <t>66,99%</t>
-  </si>
-  <si>
-    <t>61,69%</t>
-  </si>
-  <si>
-    <t>72,72%</t>
-  </si>
-  <si>
-    <t>61,13%</t>
-  </si>
-  <si>
-    <t>56,75%</t>
-  </si>
-  <si>
-    <t>65,05%</t>
-  </si>
-  <si>
-    <t>44,63%</t>
-  </si>
-  <si>
-    <t>39,05%</t>
-  </si>
-  <si>
-    <t>51,57%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>38,31%</t>
-  </si>
-  <si>
-    <t>38,87%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>43,25%</t>
-  </si>
-  <si>
-    <t>56,92%</t>
-  </si>
-  <si>
-    <t>52,64%</t>
-  </si>
-  <si>
-    <t>61,27%</t>
-  </si>
-  <si>
-    <t>70,91%</t>
-  </si>
-  <si>
-    <t>66,67%</t>
-  </si>
-  <si>
-    <t>74,54%</t>
-  </si>
-  <si>
-    <t>64,06%</t>
-  </si>
-  <si>
-    <t>60,91%</t>
-  </si>
-  <si>
-    <t>67,28%</t>
-  </si>
-  <si>
-    <t>43,08%</t>
-  </si>
-  <si>
-    <t>38,73%</t>
-  </si>
-  <si>
-    <t>47,36%</t>
-  </si>
-  <si>
-    <t>29,09%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>33,33%</t>
-  </si>
-  <si>
-    <t>35,94%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>39,09%</t>
-  </si>
-  <si>
-    <t>52,07%</t>
-  </si>
-  <si>
-    <t>46,98%</t>
-  </si>
-  <si>
-    <t>57,56%</t>
-  </si>
-  <si>
-    <t>61,38%</t>
-  </si>
-  <si>
-    <t>56,5%</t>
-  </si>
-  <si>
-    <t>67,15%</t>
-  </si>
-  <si>
-    <t>52,96%</t>
-  </si>
-  <si>
-    <t>60,65%</t>
-  </si>
-  <si>
-    <t>47,93%</t>
-  </si>
-  <si>
-    <t>42,44%</t>
-  </si>
-  <si>
-    <t>53,02%</t>
-  </si>
-  <si>
-    <t>38,62%</t>
-  </si>
-  <si>
-    <t>32,85%</t>
-  </si>
-  <si>
-    <t>43,5%</t>
-  </si>
-  <si>
-    <t>39,35%</t>
-  </si>
-  <si>
-    <t>47,04%</t>
-  </si>
-  <si>
-    <t>57,27%</t>
-  </si>
-  <si>
-    <t>52,3%</t>
-  </si>
-  <si>
-    <t>62,84%</t>
-  </si>
-  <si>
-    <t>70,36%</t>
-  </si>
-  <si>
-    <t>65,53%</t>
-  </si>
-  <si>
-    <t>74,82%</t>
-  </si>
-  <si>
-    <t>63,96%</t>
-  </si>
-  <si>
-    <t>60,38%</t>
-  </si>
-  <si>
-    <t>67,39%</t>
-  </si>
-  <si>
-    <t>42,73%</t>
-  </si>
-  <si>
-    <t>37,16%</t>
-  </si>
-  <si>
-    <t>47,7%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>34,47%</t>
-  </si>
-  <si>
-    <t>36,04%</t>
-  </si>
-  <si>
-    <t>32,61%</t>
-  </si>
-  <si>
-    <t>39,62%</t>
-  </si>
-  <si>
-    <t>52,23%</t>
-  </si>
-  <si>
-    <t>45,71%</t>
-  </si>
-  <si>
-    <t>59,33%</t>
-  </si>
-  <si>
-    <t>61,22%</t>
-  </si>
-  <si>
-    <t>54,92%</t>
-  </si>
-  <si>
-    <t>67,62%</t>
-  </si>
-  <si>
-    <t>56,8%</t>
-  </si>
-  <si>
-    <t>51,55%</t>
-  </si>
-  <si>
-    <t>61,09%</t>
-  </si>
-  <si>
-    <t>47,77%</t>
-  </si>
-  <si>
-    <t>40,67%</t>
-  </si>
-  <si>
-    <t>54,29%</t>
-  </si>
-  <si>
-    <t>38,78%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>45,08%</t>
-  </si>
-  <si>
-    <t>43,2%</t>
-  </si>
-  <si>
-    <t>38,91%</t>
-  </si>
-  <si>
-    <t>48,45%</t>
-  </si>
-  <si>
-    <t>47,66%</t>
-  </si>
-  <si>
-    <t>41,56%</t>
-  </si>
-  <si>
-    <t>53,8%</t>
-  </si>
-  <si>
-    <t>58,69%</t>
-  </si>
-  <si>
-    <t>52,02%</t>
-  </si>
-  <si>
-    <t>63,79%</t>
-  </si>
-  <si>
-    <t>53,28%</t>
-  </si>
-  <si>
-    <t>57,39%</t>
-  </si>
-  <si>
-    <t>52,34%</t>
-  </si>
-  <si>
-    <t>46,2%</t>
-  </si>
-  <si>
-    <t>58,44%</t>
-  </si>
-  <si>
-    <t>41,31%</t>
-  </si>
-  <si>
-    <t>36,21%</t>
-  </si>
-  <si>
-    <t>47,98%</t>
-  </si>
-  <si>
-    <t>46,72%</t>
-  </si>
-  <si>
-    <t>42,61%</t>
-  </si>
-  <si>
-    <t>43,66%</t>
-  </si>
-  <si>
-    <t>47,69%</t>
-  </si>
-  <si>
-    <t>54,88%</t>
-  </si>
-  <si>
-    <t>50,94%</t>
-  </si>
-  <si>
-    <t>58,63%</t>
-  </si>
-  <si>
-    <t>49,41%</t>
-  </si>
-  <si>
-    <t>46,53%</t>
-  </si>
-  <si>
-    <t>51,99%</t>
-  </si>
-  <si>
-    <t>56,34%</t>
-  </si>
-  <si>
-    <t>52,31%</t>
-  </si>
-  <si>
-    <t>45,12%</t>
-  </si>
-  <si>
-    <t>41,37%</t>
-  </si>
-  <si>
-    <t>49,06%</t>
-  </si>
-  <si>
-    <t>50,59%</t>
-  </si>
-  <si>
-    <t>48,01%</t>
-  </si>
-  <si>
-    <t>53,47%</t>
-  </si>
-  <si>
-    <t>49,54%</t>
-  </si>
-  <si>
-    <t>45,73%</t>
-  </si>
-  <si>
-    <t>53,54%</t>
-  </si>
-  <si>
-    <t>59,8%</t>
-  </si>
-  <si>
-    <t>56,12%</t>
-  </si>
-  <si>
-    <t>63,26%</t>
-  </si>
-  <si>
-    <t>54,82%</t>
-  </si>
-  <si>
-    <t>52,41%</t>
-  </si>
-  <si>
-    <t>57,14%</t>
-  </si>
-  <si>
-    <t>50,46%</t>
-  </si>
-  <si>
-    <t>46,46%</t>
-  </si>
-  <si>
-    <t>54,27%</t>
-  </si>
-  <si>
-    <t>40,2%</t>
-  </si>
-  <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>43,88%</t>
-  </si>
-  <si>
-    <t>45,18%</t>
-  </si>
-  <si>
-    <t>42,86%</t>
-  </si>
-  <si>
-    <t>47,59%</t>
-  </si>
-  <si>
-    <t>51,1%</t>
-  </si>
-  <si>
-    <t>49,28%</t>
-  </si>
-  <si>
-    <t>52,77%</t>
-  </si>
-  <si>
-    <t>62,37%</t>
-  </si>
-  <si>
-    <t>60,71%</t>
-  </si>
-  <si>
-    <t>64,02%</t>
-  </si>
-  <si>
-    <t>58,0%</t>
-  </si>
-  <si>
-    <t>48,9%</t>
-  </si>
-  <si>
-    <t>47,23%</t>
-  </si>
-  <si>
-    <t>50,72%</t>
-  </si>
-  <si>
-    <t>37,63%</t>
-  </si>
-  <si>
-    <t>35,98%</t>
-  </si>
-  <si>
-    <t>39,29%</t>
-  </si>
-  <si>
-    <t>42,0%</t>
-  </si>
-  <si>
-    <t>Hogares según si tienen personas con enfermedades crónicas en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>99,94%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>79,92%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>87,16%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>91,06%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>91,89%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
+    <t>62,78%</t>
+  </si>
+  <si>
+    <t>57,68%</t>
+  </si>
+  <si>
+    <t>66,5%</t>
   </si>
 </sst>
 </file>
@@ -2343,7 +2334,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F245E4A-B7D5-491F-AEE0-77B2F8AC7CC9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8325EADE-68D3-4F6F-93AD-A423433E755A}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2461,10 +2452,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D4" s="7">
-        <v>115811</v>
+        <v>114264</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -2476,10 +2467,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I4" s="7">
-        <v>132156</v>
+        <v>129900</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -2491,10 +2482,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="N4" s="7">
-        <v>247967</v>
+        <v>244164</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -2512,10 +2503,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D5" s="7">
-        <v>157199</v>
+        <v>158746</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -2527,10 +2518,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I5" s="7">
-        <v>128682</v>
+        <v>130938</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -2542,10 +2533,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="N5" s="7">
-        <v>285881</v>
+        <v>289684</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -2616,10 +2607,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>207</v>
+        <v>185</v>
       </c>
       <c r="D7" s="7">
-        <v>221246</v>
+        <v>198936</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -2631,10 +2622,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="I7" s="7">
-        <v>311949</v>
+        <v>302759</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -2646,19 +2637,19 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>516</v>
+        <v>485</v>
       </c>
       <c r="N7" s="7">
-        <v>533195</v>
+        <v>501695</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2667,49 +2658,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="D8" s="7">
-        <v>271829</v>
+        <v>294139</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="I8" s="7">
-        <v>192000</v>
+        <v>201190</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>448</v>
+        <v>479</v>
       </c>
       <c r="N8" s="7">
-        <v>463829</v>
+        <v>495329</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2765,55 +2756,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D10" s="7">
-        <v>142433</v>
+        <v>139402</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I10" s="7">
-        <v>227388</v>
+        <v>226381</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="N10" s="7">
-        <v>369821</v>
+        <v>365783</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2822,49 +2813,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D11" s="7">
-        <v>176413</v>
+        <v>179444</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="I11" s="7">
-        <v>108024</v>
+        <v>109031</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="N11" s="7">
-        <v>284437</v>
+        <v>288475</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2920,55 +2911,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D13" s="7">
-        <v>182458</v>
+        <v>180801</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I13" s="7">
-        <v>254257</v>
+        <v>255641</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="N13" s="7">
-        <v>436715</v>
+        <v>436443</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2977,49 +2968,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D14" s="7">
-        <v>176213</v>
+        <v>177870</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I14" s="7">
-        <v>117199</v>
+        <v>115815</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="N14" s="7">
-        <v>293412</v>
+        <v>293684</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3075,55 +3066,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="D16" s="7">
-        <v>97649</v>
+        <v>88654</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="I16" s="7">
-        <v>129100</v>
+        <v>119101</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
-        <v>226</v>
+        <v>207</v>
       </c>
       <c r="N16" s="7">
-        <v>226749</v>
+        <v>207756</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3132,49 +3123,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>113</v>
+      </c>
+      <c r="D17" s="7">
+        <v>114654</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="H17" s="7">
+        <v>84</v>
+      </c>
+      <c r="I17" s="7">
+        <v>88567</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="D17" s="7">
-        <v>105659</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="H17" s="7">
-        <v>75</v>
-      </c>
-      <c r="I17" s="7">
-        <v>78568</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>101</v>
-      </c>
       <c r="M17" s="7">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="N17" s="7">
-        <v>184227</v>
+        <v>203220</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3230,7 +3221,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3242,43 +3233,43 @@
         <v>135777</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I19" s="7">
-        <v>178489</v>
+        <v>177536</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="N19" s="7">
-        <v>314266</v>
+        <v>313313</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3293,43 +3284,43 @@
         <v>135034</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I20" s="7">
-        <v>99655</v>
+        <v>100608</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N20" s="7">
-        <v>234689</v>
+        <v>235642</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3385,55 +3376,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>275</v>
+        <v>253</v>
       </c>
       <c r="D22" s="7">
-        <v>275349</v>
+        <v>252865</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H22" s="7">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="I22" s="7">
-        <v>383156</v>
+        <v>372392</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M22" s="7">
-        <v>649</v>
+        <v>617</v>
       </c>
       <c r="N22" s="7">
-        <v>658505</v>
+        <v>625257</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>59</v>
+        <v>134</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3442,49 +3433,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>323</v>
+        <v>345</v>
       </c>
       <c r="D23" s="7">
-        <v>339678</v>
+        <v>362162</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="H23" s="7">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="I23" s="7">
-        <v>255063</v>
+        <v>265827</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="M23" s="7">
-        <v>570</v>
+        <v>602</v>
       </c>
       <c r="N23" s="7">
-        <v>594741</v>
+        <v>627989</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>51</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3540,55 +3531,55 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C25" s="7">
-        <v>372</v>
+        <v>346</v>
       </c>
       <c r="D25" s="7">
-        <v>370059</v>
+        <v>343101</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="H25" s="7">
-        <v>452</v>
+        <v>431</v>
       </c>
       <c r="I25" s="7">
-        <v>479085</v>
+        <v>457060</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="M25" s="7">
-        <v>824</v>
+        <v>777</v>
       </c>
       <c r="N25" s="7">
-        <v>849144</v>
+        <v>800161</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>149</v>
+        <v>47</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3597,49 +3588,49 @@
         <v>20</v>
       </c>
       <c r="C26" s="7">
-        <v>364</v>
+        <v>390</v>
       </c>
       <c r="D26" s="7">
-        <v>373736</v>
+        <v>400694</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="H26" s="7">
-        <v>293</v>
+        <v>314</v>
       </c>
       <c r="I26" s="7">
-        <v>304426</v>
+        <v>326451</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="M26" s="7">
-        <v>657</v>
+        <v>704</v>
       </c>
       <c r="N26" s="7">
-        <v>678162</v>
+        <v>727145</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>159</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3701,49 +3692,49 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>1538</v>
+        <v>1452</v>
       </c>
       <c r="D28" s="7">
-        <v>1540782</v>
+        <v>1453801</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H28" s="7">
-        <v>2047</v>
+        <v>1994</v>
       </c>
       <c r="I28" s="7">
-        <v>2095582</v>
+        <v>2040770</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M28" s="7">
-        <v>3585</v>
+        <v>3446</v>
       </c>
       <c r="N28" s="7">
-        <v>3636363</v>
+        <v>3494572</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3752,49 +3743,49 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>1676</v>
+        <v>1762</v>
       </c>
       <c r="D29" s="7">
-        <v>1735762</v>
+        <v>1822742</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H29" s="7">
-        <v>1250</v>
+        <v>1303</v>
       </c>
       <c r="I29" s="7">
-        <v>1283616</v>
+        <v>1338427</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M29" s="7">
-        <v>2926</v>
+        <v>3065</v>
       </c>
       <c r="N29" s="7">
-        <v>3019377</v>
+        <v>3161169</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3806,7 +3797,7 @@
         <v>3214</v>
       </c>
       <c r="D30" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -3821,7 +3812,7 @@
         <v>3297</v>
       </c>
       <c r="I30" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -3836,7 +3827,7 @@
         <v>6511</v>
       </c>
       <c r="N30" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -3850,7 +3841,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -3874,7 +3865,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11FDCDB2-1860-4C40-9EC7-262520F77DD6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{656E50B7-2529-40FE-8118-CA24F5A54BEB}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3891,7 +3882,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3992,43 +3983,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>169</v>
+      </c>
+      <c r="D4" s="7">
+        <v>176600</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>195</v>
+      </c>
+      <c r="I4" s="7">
+        <v>220466</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>364</v>
+      </c>
+      <c r="N4" s="7">
+        <v>397066</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4037,43 +4034,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>113</v>
+      </c>
+      <c r="D5" s="7">
+        <v>118138</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>61</v>
+      </c>
+      <c r="I5" s="7">
+        <v>66779</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>174</v>
+      </c>
+      <c r="N5" s="7">
+        <v>184917</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4082,43 +4085,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>282</v>
+      </c>
+      <c r="D6" s="7">
+        <v>294738</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>256</v>
+      </c>
+      <c r="I6" s="7">
+        <v>287245</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>538</v>
+      </c>
+      <c r="N6" s="7">
+        <v>581983</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4129,49 +4138,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="D7" s="7">
-        <v>265085</v>
+        <v>257810</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="H7" s="7">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="I7" s="7">
-        <v>365977</v>
+        <v>357775</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="M7" s="7">
-        <v>575</v>
+        <v>560</v>
       </c>
       <c r="N7" s="7">
-        <v>631061</v>
+        <v>615585</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4180,49 +4189,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="D8" s="7">
-        <v>240442</v>
+        <v>247717</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="H8" s="7">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="I8" s="7">
-        <v>157788</v>
+        <v>165990</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="M8" s="7">
-        <v>377</v>
+        <v>392</v>
       </c>
       <c r="N8" s="7">
-        <v>398231</v>
+        <v>413707</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4278,55 +4287,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D10" s="7">
-        <v>191653</v>
+        <v>190631</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="H10" s="7">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="I10" s="7">
-        <v>233986</v>
+        <v>229991</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="M10" s="7">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="N10" s="7">
-        <v>425639</v>
+        <v>420622</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4335,49 +4344,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D11" s="7">
-        <v>132393</v>
+        <v>133415</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="H11" s="7">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="I11" s="7">
-        <v>107034</v>
+        <v>111029</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="M11" s="7">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="N11" s="7">
-        <v>239427</v>
+        <v>244444</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4433,55 +4442,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>372</v>
+        <v>195</v>
       </c>
       <c r="D13" s="7">
-        <v>398423</v>
+        <v>212898</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="H13" s="7">
-        <v>457</v>
+        <v>258</v>
       </c>
       <c r="I13" s="7">
-        <v>497328</v>
+        <v>272015</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="M13" s="7">
-        <v>829</v>
+        <v>453</v>
       </c>
       <c r="N13" s="7">
-        <v>895751</v>
+        <v>484913</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>224</v>
+        <v>182</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>225</v>
+        <v>243</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4490,49 +4499,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>254</v>
+        <v>149</v>
       </c>
       <c r="D14" s="7">
-        <v>270297</v>
+        <v>161084</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>227</v>
+        <v>245</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>228</v>
+        <v>246</v>
       </c>
       <c r="H14" s="7">
-        <v>170</v>
+        <v>113</v>
       </c>
       <c r="I14" s="7">
-        <v>178868</v>
+        <v>116936</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>229</v>
+        <v>247</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>230</v>
+        <v>248</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>231</v>
+        <v>249</v>
       </c>
       <c r="M14" s="7">
-        <v>424</v>
+        <v>262</v>
       </c>
       <c r="N14" s="7">
-        <v>449165</v>
+        <v>278020</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>232</v>
+        <v>250</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>233</v>
+        <v>251</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>234</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4541,10 +4550,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>626</v>
+        <v>344</v>
       </c>
       <c r="D15" s="7">
-        <v>668720</v>
+        <v>373982</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4556,10 +4565,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>627</v>
+        <v>371</v>
       </c>
       <c r="I15" s="7">
-        <v>676196</v>
+        <v>388951</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4571,10 +4580,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1253</v>
+        <v>715</v>
       </c>
       <c r="N15" s="7">
-        <v>1344916</v>
+        <v>762933</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4588,55 +4597,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D16" s="7">
-        <v>117740</v>
+        <v>113792</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="H16" s="7">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="I16" s="7">
-        <v>180758</v>
+        <v>174738</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="M16" s="7">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="N16" s="7">
-        <v>298499</v>
+        <v>288530</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4645,49 +4654,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D17" s="7">
-        <v>94878</v>
+        <v>98826</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="H17" s="7">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="I17" s="7">
-        <v>38833</v>
+        <v>44853</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c r="M17" s="7">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="N17" s="7">
-        <v>133710</v>
+        <v>143679</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>251</v>
+        <v>268</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4743,7 +4752,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4755,43 +4764,43 @@
         <v>171526</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>254</v>
+        <v>114</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>255</v>
+        <v>271</v>
       </c>
       <c r="H19" s="7">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I19" s="7">
-        <v>217152</v>
+        <v>216095</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>256</v>
+        <v>272</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>257</v>
+        <v>273</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="M19" s="7">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="N19" s="7">
-        <v>388678</v>
+        <v>387621</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>260</v>
+        <v>276</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>261</v>
+        <v>277</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4806,43 +4815,43 @@
         <v>102455</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>262</v>
+        <v>278</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>263</v>
+        <v>279</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>264</v>
+        <v>123</v>
       </c>
       <c r="H20" s="7">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I20" s="7">
-        <v>62879</v>
+        <v>63936</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="M20" s="7">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N20" s="7">
-        <v>165334</v>
+        <v>166391</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>270</v>
+        <v>285</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4898,55 +4907,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D22" s="7">
-        <v>383905</v>
+        <v>381907</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>271</v>
+        <v>156</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="H22" s="7">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="I22" s="7">
-        <v>473696</v>
+        <v>467848</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="M22" s="7">
-        <v>793</v>
+        <v>786</v>
       </c>
       <c r="N22" s="7">
-        <v>857601</v>
+        <v>849755</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>164</v>
+        <v>292</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>278</v>
+        <v>293</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4955,49 +4964,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D23" s="7">
-        <v>278883</v>
+        <v>280881</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>279</v>
+        <v>147</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>280</v>
+        <v>294</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="H23" s="7">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="I23" s="7">
-        <v>220157</v>
+        <v>226005</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>283</v>
+        <v>297</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>284</v>
+        <v>298</v>
       </c>
       <c r="M23" s="7">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="N23" s="7">
-        <v>499040</v>
+        <v>506886</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>174</v>
+        <v>301</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5053,55 +5062,55 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C25" s="7">
-        <v>331</v>
+        <v>308</v>
       </c>
       <c r="D25" s="7">
-        <v>365798</v>
+        <v>341037</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>287</v>
+        <v>302</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>288</v>
+        <v>303</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>289</v>
+        <v>304</v>
       </c>
       <c r="H25" s="7">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="I25" s="7">
-        <v>479157</v>
+        <v>465197</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>290</v>
+        <v>26</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="M25" s="7">
-        <v>766</v>
+        <v>731</v>
       </c>
       <c r="N25" s="7">
-        <v>844955</v>
+        <v>806234</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>293</v>
+        <v>307</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>295</v>
+        <v>309</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5110,49 +5119,49 @@
         <v>20</v>
       </c>
       <c r="C26" s="7">
-        <v>386</v>
+        <v>409</v>
       </c>
       <c r="D26" s="7">
-        <v>413300</v>
+        <v>438061</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>296</v>
+        <v>310</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>297</v>
+        <v>311</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>298</v>
+        <v>312</v>
       </c>
       <c r="H26" s="7">
-        <v>322</v>
+        <v>334</v>
       </c>
       <c r="I26" s="7">
-        <v>344696</v>
+        <v>358656</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>299</v>
+        <v>15</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>301</v>
+        <v>314</v>
       </c>
       <c r="M26" s="7">
-        <v>708</v>
+        <v>743</v>
       </c>
       <c r="N26" s="7">
-        <v>757996</v>
+        <v>796717</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>302</v>
+        <v>315</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>303</v>
+        <v>316</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>304</v>
+        <v>317</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5214,49 +5223,49 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>1761</v>
+        <v>1716</v>
       </c>
       <c r="D28" s="7">
-        <v>1894130</v>
+        <v>1846202</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>305</v>
+        <v>318</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>307</v>
+        <v>320</v>
       </c>
       <c r="H28" s="7">
-        <v>2260</v>
+        <v>2220</v>
       </c>
       <c r="I28" s="7">
-        <v>2448055</v>
+        <v>2404125</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>310</v>
+        <v>323</v>
       </c>
       <c r="M28" s="7">
-        <v>4021</v>
+        <v>3936</v>
       </c>
       <c r="N28" s="7">
-        <v>4342185</v>
+        <v>4250328</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>311</v>
+        <v>324</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>313</v>
+        <v>259</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5265,49 +5274,49 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>1448</v>
+        <v>1493</v>
       </c>
       <c r="D29" s="7">
-        <v>1532649</v>
+        <v>1580577</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="H29" s="7">
-        <v>1038</v>
+        <v>1078</v>
       </c>
       <c r="I29" s="7">
-        <v>1110254</v>
+        <v>1154184</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
       <c r="M29" s="7">
-        <v>2486</v>
+        <v>2571</v>
       </c>
       <c r="N29" s="7">
-        <v>2642903</v>
+        <v>2734760</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>321</v>
+        <v>269</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>322</v>
+        <v>333</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5363,7 +5372,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -5387,7 +5396,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E10ADA8-C4C2-4377-BCBA-B2FBF0EAF2F0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAA585F1-91B8-4901-BAEB-F54D62192775}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5404,7 +5413,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5505,49 +5514,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D4" s="7">
-        <v>162656</v>
+        <v>156140</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="H4" s="7">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="I4" s="7">
-        <v>193394</v>
+        <v>187467</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>328</v>
+        <v>339</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>329</v>
+        <v>340</v>
       </c>
       <c r="M4" s="7">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="N4" s="7">
-        <v>356051</v>
+        <v>343607</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5556,49 +5565,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="D5" s="7">
-        <v>131105</v>
+        <v>137621</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>333</v>
+        <v>344</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="H5" s="7">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="I5" s="7">
-        <v>95309</v>
+        <v>101236</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>336</v>
+        <v>347</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>338</v>
+        <v>349</v>
       </c>
       <c r="M5" s="7">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="N5" s="7">
-        <v>226413</v>
+        <v>238857</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>340</v>
+        <v>351</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>341</v>
+        <v>352</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5660,49 +5669,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D7" s="7">
-        <v>286067</v>
+        <v>281727</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>342</v>
+        <v>16</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>343</v>
+        <v>237</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="H7" s="7">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="I7" s="7">
-        <v>370929</v>
+        <v>365818</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="M7" s="7">
-        <v>609</v>
+        <v>600</v>
       </c>
       <c r="N7" s="7">
-        <v>656996</v>
+        <v>647545</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>349</v>
+        <v>312</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5711,49 +5720,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="D8" s="7">
-        <v>216508</v>
+        <v>220848</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>351</v>
+        <v>25</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>353</v>
+        <v>246</v>
       </c>
       <c r="H8" s="7">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="I8" s="7">
-        <v>152155</v>
+        <v>157266</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="M8" s="7">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="N8" s="7">
-        <v>368663</v>
+        <v>378114</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>359</v>
+        <v>303</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5809,55 +5818,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D10" s="7">
-        <v>165880</v>
+        <v>163356</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="H10" s="7">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="I10" s="7">
-        <v>206425</v>
+        <v>203419</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="M10" s="7">
+        <v>368</v>
+      </c>
+      <c r="N10" s="7">
+        <v>366775</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>373</v>
-      </c>
-      <c r="N10" s="7">
-        <v>372305</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5866,49 +5875,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D11" s="7">
-        <v>152685</v>
+        <v>155209</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="H11" s="7">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I11" s="7">
-        <v>129884</v>
+        <v>132890</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="M11" s="7">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="N11" s="7">
-        <v>282569</v>
+        <v>288099</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>47</v>
+        <v>380</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5964,55 +5973,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D13" s="7">
-        <v>211882</v>
+        <v>205998</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>377</v>
+        <v>95</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="H13" s="7">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="I13" s="7">
-        <v>272484</v>
+        <v>270454</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="M13" s="7">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="N13" s="7">
-        <v>484366</v>
+        <v>476451</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6021,49 +6030,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="D14" s="7">
-        <v>158082</v>
+        <v>163966</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>387</v>
+        <v>104</v>
       </c>
       <c r="H14" s="7">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="I14" s="7">
-        <v>114799</v>
+        <v>116829</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="M14" s="7">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="N14" s="7">
-        <v>272881</v>
+        <v>280796</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6119,55 +6128,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D16" s="7">
-        <v>110311</v>
+        <v>108244</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="H16" s="7">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I16" s="7">
-        <v>133829</v>
+        <v>132005</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>397</v>
+        <v>165</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="M16" s="7">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="N16" s="7">
-        <v>244140</v>
+        <v>240249</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6176,49 +6185,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D17" s="7">
-        <v>100910</v>
+        <v>102977</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="H17" s="7">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I17" s="7">
-        <v>84758</v>
+        <v>86582</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>406</v>
+        <v>174</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="M17" s="7">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="N17" s="7">
-        <v>185668</v>
+        <v>189559</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6274,55 +6283,55 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D19" s="7">
-        <v>125413</v>
+        <v>117564</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="H19" s="7">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="I19" s="7">
-        <v>160286</v>
+        <v>154299</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="M19" s="7">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="N19" s="7">
-        <v>285699</v>
+        <v>271864</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>127</v>
+        <v>422</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6331,49 +6340,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="D20" s="7">
-        <v>137710</v>
+        <v>145559</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="H20" s="7">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="I20" s="7">
-        <v>112829</v>
+        <v>118816</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="M20" s="7">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="N20" s="7">
-        <v>250539</v>
+        <v>264374</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>134</v>
+        <v>432</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6429,55 +6438,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="D22" s="7">
-        <v>286627</v>
+        <v>278997</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>65</v>
+        <v>434</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="H22" s="7">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="I22" s="7">
-        <v>379352</v>
+        <v>373580</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="M22" s="7">
-        <v>596</v>
+        <v>584</v>
       </c>
       <c r="N22" s="7">
-        <v>665979</v>
+        <v>652577</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6486,49 +6495,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="D23" s="7">
-        <v>369931</v>
+        <v>377561</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>57</v>
+        <v>444</v>
       </c>
       <c r="H23" s="7">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="I23" s="7">
-        <v>311942</v>
+        <v>317714</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="M23" s="7">
-        <v>630</v>
+        <v>642</v>
       </c>
       <c r="N23" s="7">
-        <v>681873</v>
+        <v>695275</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6584,55 +6593,55 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C25" s="7">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="D25" s="7">
-        <v>385707</v>
+        <v>374820</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="H25" s="7">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="I25" s="7">
-        <v>494086</v>
+        <v>485859</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="M25" s="7">
-        <v>807</v>
+        <v>789</v>
       </c>
       <c r="N25" s="7">
-        <v>879793</v>
+        <v>860679</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>450</v>
+        <v>40</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6641,49 +6650,49 @@
         <v>20</v>
       </c>
       <c r="C26" s="7">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="D26" s="7">
-        <v>392876</v>
+        <v>403763</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="H26" s="7">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="I26" s="7">
-        <v>332081</v>
+        <v>340308</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="M26" s="7">
-        <v>698</v>
+        <v>716</v>
       </c>
       <c r="N26" s="7">
-        <v>724957</v>
+        <v>744071</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>459</v>
+        <v>48</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6745,49 +6754,49 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>1669</v>
+        <v>1626</v>
       </c>
       <c r="D28" s="7">
-        <v>1734544</v>
+        <v>1686846</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>462</v>
+        <v>315</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>463</v>
+        <v>382</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="H28" s="7">
-        <v>2021</v>
+        <v>1985</v>
       </c>
       <c r="I28" s="7">
-        <v>2210784</v>
+        <v>2172901</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="M28" s="7">
-        <v>3690</v>
+        <v>3611</v>
       </c>
       <c r="N28" s="7">
-        <v>3945329</v>
+        <v>3859748</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>16</v>
+        <v>471</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>26</v>
+        <v>472</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6796,49 +6805,49 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>1562</v>
+        <v>1605</v>
       </c>
       <c r="D29" s="7">
-        <v>1659806</v>
+        <v>1707504</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>469</v>
+        <v>307</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>471</v>
+        <v>372</v>
       </c>
       <c r="H29" s="7">
-        <v>1317</v>
+        <v>1353</v>
       </c>
       <c r="I29" s="7">
-        <v>1333758</v>
+        <v>1371641</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="M29" s="7">
-        <v>2879</v>
+        <v>2958</v>
       </c>
       <c r="N29" s="7">
-        <v>2993563</v>
+        <v>3079144</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>25</v>
+        <v>478</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>15</v>
+        <v>480</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6894,7 +6903,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -6918,7 +6927,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1F438D8-9C5B-4007-8E33-C05666905699}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F644D269-1939-4CF4-B683-677E4CCBD9CB}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6935,7 +6944,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7036,49 +7045,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>328</v>
+        <v>190</v>
       </c>
       <c r="D4" s="7">
-        <v>258688</v>
+        <v>184716</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="H4" s="7">
-        <v>536</v>
+        <v>359</v>
       </c>
       <c r="I4" s="7">
-        <v>270299</v>
+        <v>197039</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="M4" s="7">
-        <v>864</v>
+        <v>549</v>
       </c>
       <c r="N4" s="7">
-        <v>528986</v>
+        <v>381755</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7087,49 +7096,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>3</v>
+        <v>141</v>
       </c>
       <c r="D5" s="7">
-        <v>1610</v>
+        <v>126727</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="H5" s="7">
-        <v>2</v>
+        <v>179</v>
       </c>
       <c r="I5" s="7">
-        <v>1104</v>
+        <v>92596</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="M5" s="7">
-        <v>5</v>
+        <v>320</v>
       </c>
       <c r="N5" s="7">
-        <v>2714</v>
+        <v>219322</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7141,7 +7150,7 @@
         <v>331</v>
       </c>
       <c r="D6" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -7156,7 +7165,7 @@
         <v>538</v>
       </c>
       <c r="I6" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -7171,7 +7180,7 @@
         <v>869</v>
       </c>
       <c r="N6" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -7191,49 +7200,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>372</v>
+        <v>138</v>
       </c>
       <c r="D7" s="7">
-        <v>503352</v>
+        <v>170404</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="H7" s="7">
-        <v>704</v>
+        <v>297</v>
       </c>
       <c r="I7" s="7">
-        <v>544114</v>
+        <v>195407</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>498</v>
+        <v>269</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="M7" s="7">
-        <v>1076</v>
+        <v>435</v>
       </c>
       <c r="N7" s="7">
-        <v>1047467</v>
+        <v>365811</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>503</v>
+        <v>475</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7242,49 +7251,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>10</v>
+        <v>244</v>
       </c>
       <c r="D8" s="7">
-        <v>15945</v>
+        <v>347986</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="H8" s="7">
-        <v>13</v>
+        <v>420</v>
       </c>
       <c r="I8" s="7">
-        <v>10452</v>
+        <v>319562</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>507</v>
+        <v>259</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="M8" s="7">
-        <v>23</v>
+        <v>664</v>
       </c>
       <c r="N8" s="7">
-        <v>26397</v>
+        <v>667548</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>511</v>
+        <v>468</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7296,7 +7305,7 @@
         <v>382</v>
       </c>
       <c r="D9" s="7">
-        <v>519297</v>
+        <v>518390</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -7311,7 +7320,7 @@
         <v>717</v>
       </c>
       <c r="I9" s="7">
-        <v>554566</v>
+        <v>514969</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -7326,7 +7335,7 @@
         <v>1099</v>
       </c>
       <c r="N9" s="7">
-        <v>1073864</v>
+        <v>1033359</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -7340,19 +7349,19 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>354</v>
+        <v>159</v>
       </c>
       <c r="D10" s="7">
-        <v>317147</v>
+        <v>128591</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>513</v>
+        <v>491</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>514</v>
@@ -7361,34 +7370,34 @@
         <v>515</v>
       </c>
       <c r="H10" s="7">
-        <v>521</v>
+        <v>270</v>
       </c>
       <c r="I10" s="7">
-        <v>361737</v>
+        <v>157502</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>516</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>517</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>429</v>
+      </c>
+      <c r="N10" s="7">
+        <v>286093</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>518</v>
       </c>
-      <c r="M10" s="7">
-        <v>875</v>
-      </c>
-      <c r="N10" s="7">
-        <v>678884</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>519</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>520</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7397,49 +7406,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>6</v>
+        <v>201</v>
       </c>
       <c r="D11" s="7">
-        <v>5093</v>
+        <v>187459</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>521</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>522</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>266</v>
+      </c>
+      <c r="I11" s="7">
+        <v>191626</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>523</v>
       </c>
-      <c r="H11" s="7">
-        <v>15</v>
-      </c>
-      <c r="I11" s="7">
-        <v>11547</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>524</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>467</v>
+      </c>
+      <c r="N11" s="7">
+        <v>379085</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>525</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>526</v>
       </c>
-      <c r="M11" s="7">
-        <v>21</v>
-      </c>
-      <c r="N11" s="7">
-        <v>16640</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>527</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>505</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7451,7 +7460,7 @@
         <v>360</v>
       </c>
       <c r="D12" s="7">
-        <v>322240</v>
+        <v>316050</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -7466,7 +7475,7 @@
         <v>536</v>
       </c>
       <c r="I12" s="7">
-        <v>373284</v>
+        <v>349128</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -7481,7 +7490,7 @@
         <v>896</v>
       </c>
       <c r="N12" s="7">
-        <v>695524</v>
+        <v>665178</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -7495,19 +7504,19 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>284</v>
+        <v>143</v>
       </c>
       <c r="D13" s="7">
-        <v>317342</v>
+        <v>127957</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>503</v>
+        <v>528</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>529</v>
@@ -7516,10 +7525,10 @@
         <v>530</v>
       </c>
       <c r="H13" s="7">
-        <v>575</v>
+        <v>339</v>
       </c>
       <c r="I13" s="7">
-        <v>392903</v>
+        <v>183799</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>531</v>
@@ -7531,19 +7540,19 @@
         <v>533</v>
       </c>
       <c r="M13" s="7">
-        <v>859</v>
+        <v>482</v>
       </c>
       <c r="N13" s="7">
-        <v>710245</v>
+        <v>311756</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>534</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>535</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7552,13 +7561,13 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>8</v>
+        <v>149</v>
       </c>
       <c r="D14" s="7">
-        <v>4898</v>
+        <v>184600</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>511</v>
+        <v>536</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>537</v>
@@ -7567,10 +7576,10 @@
         <v>538</v>
       </c>
       <c r="H14" s="7">
-        <v>24</v>
+        <v>260</v>
       </c>
       <c r="I14" s="7">
-        <v>35653</v>
+        <v>291919</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>539</v>
@@ -7582,19 +7591,19 @@
         <v>541</v>
       </c>
       <c r="M14" s="7">
-        <v>32</v>
+        <v>409</v>
       </c>
       <c r="N14" s="7">
-        <v>40551</v>
+        <v>476518</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>542</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>543</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7606,7 +7615,7 @@
         <v>292</v>
       </c>
       <c r="D15" s="7">
-        <v>322240</v>
+        <v>312557</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -7621,7 +7630,7 @@
         <v>599</v>
       </c>
       <c r="I15" s="7">
-        <v>428556</v>
+        <v>475718</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -7636,7 +7645,7 @@
         <v>891</v>
       </c>
       <c r="N15" s="7">
-        <v>750796</v>
+        <v>788274</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -7650,46 +7659,46 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>276</v>
+        <v>29</v>
       </c>
       <c r="D16" s="7">
-        <v>195830</v>
+        <v>18011</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>545</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>546</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>64</v>
+      </c>
+      <c r="I16" s="7">
+        <v>24796</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>547</v>
       </c>
-      <c r="H16" s="7">
-        <v>490</v>
-      </c>
-      <c r="I16" s="7">
-        <v>257890</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>548</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>484</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>549</v>
       </c>
       <c r="M16" s="7">
-        <v>766</v>
+        <v>93</v>
       </c>
       <c r="N16" s="7">
-        <v>453719</v>
+        <v>42806</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>550</v>
@@ -7707,10 +7716,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>3</v>
+        <v>250</v>
       </c>
       <c r="D17" s="7">
-        <v>918</v>
+        <v>160731</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>553</v>
@@ -7722,10 +7731,10 @@
         <v>555</v>
       </c>
       <c r="H17" s="7">
-        <v>5</v>
+        <v>431</v>
       </c>
       <c r="I17" s="7">
-        <v>1623</v>
+        <v>233983</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>556</v>
@@ -7734,22 +7743,22 @@
         <v>557</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>494</v>
+        <v>558</v>
       </c>
       <c r="M17" s="7">
-        <v>8</v>
+        <v>681</v>
       </c>
       <c r="N17" s="7">
-        <v>2541</v>
+        <v>394715</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7761,7 +7770,7 @@
         <v>279</v>
       </c>
       <c r="D18" s="7">
-        <v>196748</v>
+        <v>178742</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -7776,7 +7785,7 @@
         <v>495</v>
       </c>
       <c r="I18" s="7">
-        <v>259513</v>
+        <v>258779</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -7791,7 +7800,7 @@
         <v>774</v>
       </c>
       <c r="N18" s="7">
-        <v>456260</v>
+        <v>437521</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -7805,55 +7814,55 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>359</v>
+        <v>209</v>
       </c>
       <c r="D19" s="7">
-        <v>270796</v>
+        <v>133351</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="H19" s="7">
-        <v>451</v>
+        <v>261</v>
       </c>
       <c r="I19" s="7">
-        <v>270092</v>
+        <v>130596</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="M19" s="7">
-        <v>810</v>
+        <v>470</v>
       </c>
       <c r="N19" s="7">
-        <v>540887</v>
+        <v>263947</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>567</v>
+        <v>142</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>568</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>569</v>
+        <v>183</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7862,49 +7871,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>12</v>
+        <v>162</v>
       </c>
       <c r="D20" s="7">
-        <v>6427</v>
+        <v>136285</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>570</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>571</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="H20" s="7">
+        <v>199</v>
+      </c>
+      <c r="I20" s="7">
+        <v>126460</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>572</v>
       </c>
-      <c r="H20" s="7">
-        <v>9</v>
-      </c>
-      <c r="I20" s="7">
-        <v>5530</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>573</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>574</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>361</v>
+      </c>
+      <c r="N20" s="7">
+        <v>262745</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>575</v>
-      </c>
-      <c r="M20" s="7">
-        <v>21</v>
-      </c>
-      <c r="N20" s="7">
-        <v>11958</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>576</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>577</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7916,7 +7925,7 @@
         <v>371</v>
       </c>
       <c r="D21" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -7931,7 +7940,7 @@
         <v>460</v>
       </c>
       <c r="I21" s="7">
-        <v>275622</v>
+        <v>257056</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -7946,7 +7955,7 @@
         <v>831</v>
       </c>
       <c r="N21" s="7">
-        <v>552845</v>
+        <v>526692</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -7960,55 +7969,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>133</v>
+      </c>
+      <c r="D22" s="7">
+        <v>137359</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="H22" s="7">
+        <v>269</v>
+      </c>
+      <c r="I22" s="7">
+        <v>378430</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>579</v>
       </c>
-      <c r="D22" s="7">
-        <v>608792</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>579</v>
-      </c>
-      <c r="F22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>580</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>581</v>
       </c>
-      <c r="H22" s="7">
-        <v>915</v>
-      </c>
-      <c r="I22" s="7">
-        <v>775981</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>402</v>
+      </c>
+      <c r="N22" s="7">
+        <v>515789</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>582</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="P22" s="7" t="s">
         <v>583</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>584</v>
-      </c>
-      <c r="M22" s="7">
-        <v>1494</v>
-      </c>
-      <c r="N22" s="7">
-        <v>1384774</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>585</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>586</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8017,49 +8026,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>20</v>
+        <v>466</v>
       </c>
       <c r="D23" s="7">
-        <v>18962</v>
+        <v>486920</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>585</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="H23" s="7">
+        <v>691</v>
+      </c>
+      <c r="I23" s="7">
+        <v>470835</v>
+      </c>
+      <c r="J23" s="7" t="s">
         <v>588</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="K23" s="7" t="s">
         <v>589</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>590</v>
       </c>
-      <c r="H23" s="7">
-        <v>45</v>
-      </c>
-      <c r="I23" s="7">
-        <v>28222</v>
-      </c>
-      <c r="J23" s="7" t="s">
+      <c r="M23" s="7">
+        <v>1157</v>
+      </c>
+      <c r="N23" s="7">
+        <v>957755</v>
+      </c>
+      <c r="O23" s="7" t="s">
         <v>591</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="P23" s="7" t="s">
         <v>592</v>
       </c>
-      <c r="L23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>593</v>
-      </c>
-      <c r="M23" s="7">
-        <v>65</v>
-      </c>
-      <c r="N23" s="7">
-        <v>47183</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>594</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>595</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8071,7 +8080,7 @@
         <v>599</v>
       </c>
       <c r="D24" s="7">
-        <v>627754</v>
+        <v>624279</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -8086,7 +8095,7 @@
         <v>960</v>
       </c>
       <c r="I24" s="7">
-        <v>804203</v>
+        <v>849265</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -8101,7 +8110,7 @@
         <v>1559</v>
       </c>
       <c r="N24" s="7">
-        <v>1431957</v>
+        <v>1473544</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -8115,55 +8124,55 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C25" s="7">
-        <v>711</v>
+        <v>261</v>
       </c>
       <c r="D25" s="7">
-        <v>803381</v>
+        <v>204313</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>595</v>
+      </c>
+      <c r="H25" s="7">
+        <v>490</v>
+      </c>
+      <c r="I25" s="7">
+        <v>297225</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>597</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>598</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="M25" s="7">
+        <v>751</v>
+      </c>
+      <c r="N25" s="7">
+        <v>501538</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>599</v>
       </c>
-      <c r="H25" s="7">
-        <v>996</v>
-      </c>
-      <c r="I25" s="7">
-        <v>808195</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="P25" s="7" t="s">
         <v>600</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>601</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>562</v>
-      </c>
-      <c r="M25" s="7">
-        <v>1707</v>
-      </c>
-      <c r="N25" s="7">
-        <v>1611576</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>602</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>603</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8172,49 +8181,49 @@
         <v>20</v>
       </c>
       <c r="C26" s="7">
-        <v>51</v>
+        <v>501</v>
       </c>
       <c r="D26" s="7">
-        <v>56047</v>
+        <v>724407</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>585</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="H26" s="7">
+        <v>572</v>
+      </c>
+      <c r="I26" s="7">
+        <v>420506</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>604</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>605</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>606</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="M26" s="7">
+        <v>1073</v>
+      </c>
+      <c r="N26" s="7">
+        <v>1144914</v>
+      </c>
+      <c r="O26" s="7" t="s">
         <v>607</v>
       </c>
-      <c r="H26" s="7">
-        <v>66</v>
-      </c>
-      <c r="I26" s="7">
-        <v>60239</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="P26" s="7" t="s">
         <v>608</v>
       </c>
-      <c r="K26" s="7" t="s">
-        <v>572</v>
-      </c>
-      <c r="L26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>609</v>
-      </c>
-      <c r="M26" s="7">
-        <v>117</v>
-      </c>
-      <c r="N26" s="7">
-        <v>116286</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>610</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>611</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>612</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8226,7 +8235,7 @@
         <v>762</v>
       </c>
       <c r="D27" s="7">
-        <v>859428</v>
+        <v>928720</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -8241,7 +8250,7 @@
         <v>1062</v>
       </c>
       <c r="I27" s="7">
-        <v>868434</v>
+        <v>717731</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -8256,7 +8265,7 @@
         <v>1824</v>
       </c>
       <c r="N27" s="7">
-        <v>1727862</v>
+        <v>1646452</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -8276,49 +8285,49 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>3263</v>
+        <v>1262</v>
       </c>
       <c r="D28" s="7">
-        <v>3275329</v>
+        <v>1104702</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>611</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="H28" s="7">
+        <v>2349</v>
+      </c>
+      <c r="I28" s="7">
+        <v>1564793</v>
+      </c>
+      <c r="J28" s="7" t="s">
         <v>613</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="K28" s="7" t="s">
         <v>614</v>
       </c>
-      <c r="G28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>615</v>
       </c>
-      <c r="H28" s="7">
-        <v>5188</v>
-      </c>
-      <c r="I28" s="7">
-        <v>3681210</v>
-      </c>
-      <c r="J28" s="7" t="s">
+      <c r="M28" s="7">
+        <v>3611</v>
+      </c>
+      <c r="N28" s="7">
+        <v>2669494</v>
+      </c>
+      <c r="O28" s="7" t="s">
         <v>616</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="P28" s="7" t="s">
         <v>617</v>
       </c>
-      <c r="L28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>618</v>
-      </c>
-      <c r="M28" s="7">
-        <v>8451</v>
-      </c>
-      <c r="N28" s="7">
-        <v>6956539</v>
-      </c>
-      <c r="O28" s="7" t="s">
-        <v>619</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>620</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8327,49 +8336,49 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>113</v>
+        <v>2114</v>
       </c>
       <c r="D29" s="7">
-        <v>109899</v>
+        <v>2355115</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>619</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>620</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="H29" s="7">
+        <v>3018</v>
+      </c>
+      <c r="I29" s="7">
+        <v>2147487</v>
+      </c>
+      <c r="J29" s="7" t="s">
         <v>622</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="K29" s="7" t="s">
         <v>623</v>
       </c>
-      <c r="G29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>624</v>
       </c>
-      <c r="H29" s="7">
-        <v>179</v>
-      </c>
-      <c r="I29" s="7">
-        <v>154371</v>
-      </c>
-      <c r="J29" s="7" t="s">
+      <c r="M29" s="7">
+        <v>5132</v>
+      </c>
+      <c r="N29" s="7">
+        <v>4502603</v>
+      </c>
+      <c r="O29" s="7" t="s">
         <v>625</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="P29" s="7" t="s">
         <v>626</v>
       </c>
-      <c r="L29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>627</v>
-      </c>
-      <c r="M29" s="7">
-        <v>292</v>
-      </c>
-      <c r="N29" s="7">
-        <v>264270</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>628</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>629</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>630</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8381,7 +8390,7 @@
         <v>3376</v>
       </c>
       <c r="D30" s="7">
-        <v>3385228</v>
+        <v>3459817</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -8396,7 +8405,7 @@
         <v>5367</v>
       </c>
       <c r="I30" s="7">
-        <v>3835581</v>
+        <v>3712280</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -8411,7 +8420,7 @@
         <v>8743</v>
       </c>
       <c r="N30" s="7">
-        <v>7220809</v>
+        <v>7172097</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -8425,7 +8434,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
